--- a/Results/Categorization/plsa-partial-ner.xlsx
+++ b/Results/Categorization/plsa-partial-ner.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="1780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="1776">
   <si>
     <t>id</t>
   </si>
@@ -4027,132 +4027,135 @@
     <t>SERVICE|AMBIENCE|SERVICE</t>
   </si>
   <si>
+    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|FOOD|FOOD|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
     <t>FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE</t>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
     <t>SERVICE|FOOD|FOOD|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|FOOD|FOOD|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
     <t>FOOD|SERVICE|AMBIENCE</t>
   </si>
   <si>
@@ -4192,7 +4195,7 @@
     <t>FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE|FOOD|FOOD</t>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
     <t>PRICES|FOOD|FOOD|FOOD</t>
@@ -4216,106 +4219,91 @@
     <t>FOOD|SERVICE|SERVICE|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
     <t>FOOD|PRICES|SERVICE</t>
   </si>
   <si>
     <t>FOOD|PRICES|FOOD</t>
   </si>
   <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|SERVICE|AMBIENCE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
     <t>FOOD|SERVICE|SERVICE</t>
   </si>
   <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|SERVICE|AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE</t>
+    <t>FOOD|PRICES|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES</t>
   </si>
   <si>
     <t>PRICES|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|PRICES|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|PRICES|FOOD|PRICES</t>
+    <t>FOOD|PRICES|FOOD|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|PRICES|PRICES|PRICES|PRICES</t>
@@ -4333,10 +4321,10 @@
     <t>FOOD|PRICES|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
     <t>FOOD|PRICES|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
@@ -5760,10 +5748,10 @@
         <v>1336</v>
       </c>
       <c r="G2" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="H2" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5789,7 +5777,7 @@
         <v>937</v>
       </c>
       <c r="H3" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5812,10 +5800,10 @@
         <v>1337</v>
       </c>
       <c r="G4" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="H4" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5838,10 +5826,10 @@
         <v>1277</v>
       </c>
       <c r="G5" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="H5" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5864,10 +5852,10 @@
         <v>1338</v>
       </c>
       <c r="G6" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="H6" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5890,10 +5878,10 @@
         <v>1339</v>
       </c>
       <c r="G7" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="H7" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5913,13 +5901,13 @@
         <v>1277</v>
       </c>
       <c r="F8" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="G8" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="H8" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5939,13 +5927,13 @@
         <v>1276</v>
       </c>
       <c r="F9" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G9" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="H9" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5965,13 +5953,13 @@
         <v>1279</v>
       </c>
       <c r="F10" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G10" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="H10" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5991,13 +5979,13 @@
         <v>1280</v>
       </c>
       <c r="F11" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="G11" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="H11" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6020,10 +6008,10 @@
         <v>1277</v>
       </c>
       <c r="G12" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="H12" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6049,7 +6037,7 @@
         <v>937</v>
       </c>
       <c r="H13" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6072,10 +6060,10 @@
         <v>1277</v>
       </c>
       <c r="G14" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="H14" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6098,10 +6086,10 @@
         <v>1277</v>
       </c>
       <c r="G15" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="H15" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6121,13 +6109,13 @@
         <v>1282</v>
       </c>
       <c r="F16" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G16" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="H16" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6147,13 +6135,13 @@
         <v>1283</v>
       </c>
       <c r="F17" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G17" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="H17" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6176,10 +6164,10 @@
         <v>1338</v>
       </c>
       <c r="G18" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="H18" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6199,13 +6187,13 @@
         <v>1275</v>
       </c>
       <c r="F19" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G19" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="H19" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6231,7 +6219,7 @@
         <v>937</v>
       </c>
       <c r="H20" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6251,13 +6239,13 @@
         <v>1275</v>
       </c>
       <c r="F21" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G21" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="H21" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6283,7 +6271,7 @@
         <v>1124</v>
       </c>
       <c r="H22" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6309,7 +6297,7 @@
         <v>937</v>
       </c>
       <c r="H23" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6335,7 +6323,7 @@
         <v>952</v>
       </c>
       <c r="H24" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6355,13 +6343,13 @@
         <v>1275</v>
       </c>
       <c r="F25" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G25" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="H25" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6384,10 +6372,10 @@
         <v>1338</v>
       </c>
       <c r="G26" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="H26" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6413,7 +6401,7 @@
         <v>952</v>
       </c>
       <c r="H27" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6433,13 +6421,13 @@
         <v>1277</v>
       </c>
       <c r="F28" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G28" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="H28" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6462,10 +6450,10 @@
         <v>1338</v>
       </c>
       <c r="G29" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="H29" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6488,10 +6476,10 @@
         <v>1277</v>
       </c>
       <c r="G30" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="H30" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6511,13 +6499,13 @@
         <v>1278</v>
       </c>
       <c r="F31" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G31" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="H31" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6537,13 +6525,13 @@
         <v>1283</v>
       </c>
       <c r="F32" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G32" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="H32" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6563,13 +6551,13 @@
         <v>1285</v>
       </c>
       <c r="F33" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G33" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="H33" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6592,10 +6580,10 @@
         <v>1338</v>
       </c>
       <c r="G34" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="H34" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6618,10 +6606,10 @@
         <v>1277</v>
       </c>
       <c r="G35" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="H35" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6641,13 +6629,13 @@
         <v>1283</v>
       </c>
       <c r="F36" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G36" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="H36" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6670,10 +6658,10 @@
         <v>1277</v>
       </c>
       <c r="G37" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="H37" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6693,13 +6681,13 @@
         <v>1275</v>
       </c>
       <c r="F38" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G38" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="H38" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6722,10 +6710,10 @@
         <v>1284</v>
       </c>
       <c r="G39" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="H39" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6748,10 +6736,10 @@
         <v>1338</v>
       </c>
       <c r="G40" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="H40" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6771,13 +6759,13 @@
         <v>1284</v>
       </c>
       <c r="F41" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G41" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="H41" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6797,13 +6785,13 @@
         <v>1284</v>
       </c>
       <c r="F42" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G42" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="H42" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6823,13 +6811,13 @@
         <v>1279</v>
       </c>
       <c r="F43" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G43" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="H43" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6849,13 +6837,13 @@
         <v>1277</v>
       </c>
       <c r="F44" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="G44" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="H44" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6878,10 +6866,10 @@
         <v>1357</v>
       </c>
       <c r="G45" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="H45" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6907,7 +6895,7 @@
         <v>972</v>
       </c>
       <c r="H46" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6933,7 +6921,7 @@
         <v>937</v>
       </c>
       <c r="H47" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6956,10 +6944,10 @@
         <v>1338</v>
       </c>
       <c r="G48" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="H48" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6982,10 +6970,10 @@
         <v>1338</v>
       </c>
       <c r="G49" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="H49" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7008,10 +6996,10 @@
         <v>1338</v>
       </c>
       <c r="G50" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="H50" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7031,13 +7019,13 @@
         <v>1281</v>
       </c>
       <c r="F51" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
       <c r="G51" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="H51" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7060,10 +7048,10 @@
         <v>1338</v>
       </c>
       <c r="G52" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="H52" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7083,13 +7071,13 @@
         <v>1281</v>
       </c>
       <c r="F53" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G53" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="H53" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7109,13 +7097,13 @@
         <v>1277</v>
       </c>
       <c r="F54" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="G54" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="H54" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7138,10 +7126,10 @@
         <v>1338</v>
       </c>
       <c r="G55" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="H55" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7164,10 +7152,10 @@
         <v>1338</v>
       </c>
       <c r="G56" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="H56" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7187,13 +7175,13 @@
         <v>1289</v>
       </c>
       <c r="F57" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G57" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="H57" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7213,13 +7201,13 @@
         <v>1290</v>
       </c>
       <c r="F58" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G58" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="H58" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7242,10 +7230,10 @@
         <v>1339</v>
       </c>
       <c r="G59" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="H59" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7265,13 +7253,13 @@
         <v>1278</v>
       </c>
       <c r="F60" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G60" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="H60" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7291,13 +7279,13 @@
         <v>1291</v>
       </c>
       <c r="F61" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G61" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="H61" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7317,13 +7305,13 @@
         <v>1275</v>
       </c>
       <c r="F62" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G62" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="H62" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7349,7 +7337,7 @@
         <v>937</v>
       </c>
       <c r="H63" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7369,13 +7357,13 @@
         <v>1289</v>
       </c>
       <c r="F64" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G64" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="H64" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7395,13 +7383,13 @@
         <v>1275</v>
       </c>
       <c r="F65" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G65" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="H65" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7421,13 +7409,13 @@
         <v>1277</v>
       </c>
       <c r="F66" t="s">
-        <v>1365</v>
+        <v>1337</v>
       </c>
       <c r="G66" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="H66" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7447,13 +7435,13 @@
         <v>1275</v>
       </c>
       <c r="F67" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G67" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="H67" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7476,10 +7464,10 @@
         <v>1366</v>
       </c>
       <c r="G68" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="H68" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7502,10 +7490,10 @@
         <v>1338</v>
       </c>
       <c r="G69" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="H69" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7531,7 +7519,7 @@
         <v>993</v>
       </c>
       <c r="H70" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7554,10 +7542,10 @@
         <v>1277</v>
       </c>
       <c r="G71" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="H71" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7580,10 +7568,10 @@
         <v>1277</v>
       </c>
       <c r="G72" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="H72" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7609,7 +7597,7 @@
         <v>937</v>
       </c>
       <c r="H73" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7629,13 +7617,13 @@
         <v>1295</v>
       </c>
       <c r="F74" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G74" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="H74" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7658,10 +7646,10 @@
         <v>1336</v>
       </c>
       <c r="G75" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="H75" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7684,10 +7672,10 @@
         <v>1367</v>
       </c>
       <c r="G76" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="H76" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7713,7 +7701,7 @@
         <v>989</v>
       </c>
       <c r="H77" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7739,7 +7727,7 @@
         <v>999</v>
       </c>
       <c r="H78" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7762,10 +7750,10 @@
         <v>1338</v>
       </c>
       <c r="G79" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="H79" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7785,13 +7773,13 @@
         <v>1288</v>
       </c>
       <c r="F80" t="s">
-        <v>1368</v>
+        <v>1340</v>
       </c>
       <c r="G80" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="H80" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7814,10 +7802,10 @@
         <v>1338</v>
       </c>
       <c r="G81" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="H81" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7837,13 +7825,13 @@
         <v>1276</v>
       </c>
       <c r="F82" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G82" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="H82" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7866,10 +7854,10 @@
         <v>1338</v>
       </c>
       <c r="G83" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="H83" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7889,13 +7877,13 @@
         <v>1296</v>
       </c>
       <c r="F84" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G84" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="H84" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7921,7 +7909,7 @@
         <v>937</v>
       </c>
       <c r="H85" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7947,7 +7935,7 @@
         <v>1004</v>
       </c>
       <c r="H86" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7970,10 +7958,10 @@
         <v>1338</v>
       </c>
       <c r="G87" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="H87" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -7996,10 +7984,10 @@
         <v>1277</v>
       </c>
       <c r="G88" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="H88" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8019,13 +8007,13 @@
         <v>1284</v>
       </c>
       <c r="F89" t="s">
-        <v>1368</v>
+        <v>1340</v>
       </c>
       <c r="G89" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="H89" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8045,13 +8033,13 @@
         <v>1283</v>
       </c>
       <c r="F90" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G90" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="H90" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8071,13 +8059,13 @@
         <v>1277</v>
       </c>
       <c r="F91" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G91" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="H91" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8103,7 +8091,7 @@
         <v>972</v>
       </c>
       <c r="H92" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8123,13 +8111,13 @@
         <v>1285</v>
       </c>
       <c r="F93" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G93" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="H93" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8149,13 +8137,13 @@
         <v>1298</v>
       </c>
       <c r="F94" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="G94" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="H94" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8175,13 +8163,13 @@
         <v>1276</v>
       </c>
       <c r="F95" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G95" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H95" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8204,10 +8192,10 @@
         <v>1357</v>
       </c>
       <c r="G96" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="H96" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8230,10 +8218,10 @@
         <v>1367</v>
       </c>
       <c r="G97" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="H97" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8256,10 +8244,10 @@
         <v>1277</v>
       </c>
       <c r="G98" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="H98" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8282,10 +8270,10 @@
         <v>1277</v>
       </c>
       <c r="G99" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="H99" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8305,13 +8293,13 @@
         <v>1275</v>
       </c>
       <c r="F100" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G100" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="H100" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8334,10 +8322,10 @@
         <v>1277</v>
       </c>
       <c r="G101" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="H101" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8357,13 +8345,13 @@
         <v>1278</v>
       </c>
       <c r="F102" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G102" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="H102" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8386,10 +8374,10 @@
         <v>1277</v>
       </c>
       <c r="G103" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="H103" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8409,13 +8397,13 @@
         <v>1275</v>
       </c>
       <c r="F104" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G104" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="H104" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8435,13 +8423,13 @@
         <v>1284</v>
       </c>
       <c r="F105" t="s">
-        <v>1368</v>
+        <v>1340</v>
       </c>
       <c r="G105" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="H105" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8467,7 +8455,7 @@
         <v>972</v>
       </c>
       <c r="H106" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8490,10 +8478,10 @@
         <v>1338</v>
       </c>
       <c r="G107" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="H107" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8519,7 +8507,7 @@
         <v>935</v>
       </c>
       <c r="H108" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8539,13 +8527,13 @@
         <v>1285</v>
       </c>
       <c r="F109" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G109" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="H109" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8565,13 +8553,13 @@
         <v>1275</v>
       </c>
       <c r="F110" t="s">
-        <v>1364</v>
+        <v>1373</v>
       </c>
       <c r="G110" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="H110" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8591,13 +8579,13 @@
         <v>1295</v>
       </c>
       <c r="F111" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G111" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="H111" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8617,13 +8605,13 @@
         <v>1297</v>
       </c>
       <c r="F112" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G112" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="H112" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8643,13 +8631,13 @@
         <v>1275</v>
       </c>
       <c r="F113" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G113" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="H113" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8672,10 +8660,10 @@
         <v>1338</v>
       </c>
       <c r="G114" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="H114" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8698,10 +8686,10 @@
         <v>1284</v>
       </c>
       <c r="G115" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="H115" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8724,10 +8712,10 @@
         <v>1374</v>
       </c>
       <c r="G116" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="H116" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8753,7 +8741,7 @@
         <v>952</v>
       </c>
       <c r="H117" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8773,13 +8761,13 @@
         <v>1295</v>
       </c>
       <c r="F118" t="s">
-        <v>1365</v>
+        <v>1375</v>
       </c>
       <c r="G118" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="H118" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8799,13 +8787,13 @@
         <v>1276</v>
       </c>
       <c r="F119" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
       <c r="G119" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="H119" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8825,13 +8813,13 @@
         <v>1277</v>
       </c>
       <c r="F120" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="G120" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="H120" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8851,13 +8839,13 @@
         <v>1295</v>
       </c>
       <c r="F121" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="G121" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="H121" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8877,13 +8865,13 @@
         <v>1277</v>
       </c>
       <c r="F122" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="G122" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="H122" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8909,7 +8897,7 @@
         <v>972</v>
       </c>
       <c r="H123" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8935,7 +8923,7 @@
         <v>952</v>
       </c>
       <c r="H124" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8961,7 +8949,7 @@
         <v>935</v>
       </c>
       <c r="H125" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8987,7 +8975,7 @@
         <v>937</v>
       </c>
       <c r="H126" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9010,10 +8998,10 @@
         <v>1338</v>
       </c>
       <c r="G127" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="H127" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9033,13 +9021,13 @@
         <v>1277</v>
       </c>
       <c r="F128" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G128" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="H128" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9065,7 +9053,7 @@
         <v>1004</v>
       </c>
       <c r="H129" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9088,10 +9076,10 @@
         <v>1277</v>
       </c>
       <c r="G130" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="H130" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9111,13 +9099,13 @@
         <v>1275</v>
       </c>
       <c r="F131" t="s">
-        <v>1376</v>
+        <v>1365</v>
       </c>
       <c r="G131" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="H131" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9137,13 +9125,13 @@
         <v>1276</v>
       </c>
       <c r="F132" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="G132" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="H132" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9163,13 +9151,13 @@
         <v>1276</v>
       </c>
       <c r="F133" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="G133" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="H133" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9189,13 +9177,13 @@
         <v>1297</v>
       </c>
       <c r="F134" t="s">
-        <v>1374</v>
+        <v>1340</v>
       </c>
       <c r="G134" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="H134" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9218,10 +9206,10 @@
         <v>1377</v>
       </c>
       <c r="G135" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="H135" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9244,10 +9232,10 @@
         <v>1378</v>
       </c>
       <c r="G136" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="H136" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9267,13 +9255,13 @@
         <v>1276</v>
       </c>
       <c r="F137" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
       <c r="G137" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="H137" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9296,10 +9284,10 @@
         <v>1374</v>
       </c>
       <c r="G138" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="H138" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9322,10 +9310,10 @@
         <v>1374</v>
       </c>
       <c r="G139" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="H139" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9348,10 +9336,10 @@
         <v>1338</v>
       </c>
       <c r="G140" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="H140" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9371,13 +9359,13 @@
         <v>1284</v>
       </c>
       <c r="F141" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G141" t="s">
         <v>972</v>
       </c>
       <c r="H141" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9397,13 +9385,13 @@
         <v>1276</v>
       </c>
       <c r="F142" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="G142" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="H142" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9423,13 +9411,13 @@
         <v>1275</v>
       </c>
       <c r="F143" t="s">
-        <v>1368</v>
+        <v>1340</v>
       </c>
       <c r="G143" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="H143" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9452,10 +9440,10 @@
         <v>1357</v>
       </c>
       <c r="G144" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="H144" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9478,10 +9466,10 @@
         <v>1338</v>
       </c>
       <c r="G145" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="H145" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9507,7 +9495,7 @@
         <v>1054</v>
       </c>
       <c r="H146" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9527,13 +9515,13 @@
         <v>1277</v>
       </c>
       <c r="F147" t="s">
-        <v>1353</v>
+        <v>1379</v>
       </c>
       <c r="G147" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="H147" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9553,13 +9541,13 @@
         <v>1283</v>
       </c>
       <c r="F148" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G148" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="H148" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9582,10 +9570,10 @@
         <v>1277</v>
       </c>
       <c r="G149" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="H149" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9611,7 +9599,7 @@
         <v>993</v>
       </c>
       <c r="H150" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9631,13 +9619,13 @@
         <v>1301</v>
       </c>
       <c r="F151" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G151" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="H151" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9663,7 +9651,7 @@
         <v>935</v>
       </c>
       <c r="H152" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9686,10 +9674,10 @@
         <v>1277</v>
       </c>
       <c r="G153" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="H153" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9709,13 +9697,13 @@
         <v>1276</v>
       </c>
       <c r="F154" t="s">
-        <v>1337</v>
+        <v>1358</v>
       </c>
       <c r="G154" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="H154" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9735,13 +9723,13 @@
         <v>1275</v>
       </c>
       <c r="F155" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="G155" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="H155" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9767,7 +9755,7 @@
         <v>1000</v>
       </c>
       <c r="H156" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9790,10 +9778,10 @@
         <v>1277</v>
       </c>
       <c r="G157" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="H157" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9813,13 +9801,13 @@
         <v>1303</v>
       </c>
       <c r="F158" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="G158" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="H158" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9839,13 +9827,13 @@
         <v>1277</v>
       </c>
       <c r="F159" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G159" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="H159" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9865,13 +9853,13 @@
         <v>1277</v>
       </c>
       <c r="F160" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="G160" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="H160" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9894,10 +9882,10 @@
         <v>1338</v>
       </c>
       <c r="G161" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="H161" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9920,10 +9908,10 @@
         <v>1277</v>
       </c>
       <c r="G162" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="H162" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9946,10 +9934,10 @@
         <v>1277</v>
       </c>
       <c r="G163" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="H163" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9969,13 +9957,13 @@
         <v>1284</v>
       </c>
       <c r="F164" t="s">
-        <v>1368</v>
+        <v>1374</v>
       </c>
       <c r="G164" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="H164" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9995,13 +9983,13 @@
         <v>1284</v>
       </c>
       <c r="F165" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="G165" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="H165" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10027,7 +10015,7 @@
         <v>1066</v>
       </c>
       <c r="H166" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10047,13 +10035,13 @@
         <v>1277</v>
       </c>
       <c r="F167" t="s">
-        <v>1368</v>
+        <v>1340</v>
       </c>
       <c r="G167" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="H167" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10079,7 +10067,7 @@
         <v>980</v>
       </c>
       <c r="H168" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10099,13 +10087,13 @@
         <v>1278</v>
       </c>
       <c r="F169" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="G169" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="H169" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10125,13 +10113,13 @@
         <v>1285</v>
       </c>
       <c r="F170" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G170" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="H170" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10154,10 +10142,10 @@
         <v>1277</v>
       </c>
       <c r="G171" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="H171" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10180,10 +10168,10 @@
         <v>1338</v>
       </c>
       <c r="G172" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="H172" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10203,13 +10191,13 @@
         <v>1304</v>
       </c>
       <c r="F173" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="G173" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="H173" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10229,13 +10217,13 @@
         <v>1299</v>
       </c>
       <c r="F174" t="s">
-        <v>1376</v>
+        <v>1365</v>
       </c>
       <c r="G174" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="H174" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10255,13 +10243,13 @@
         <v>1305</v>
       </c>
       <c r="F175" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G175" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="H175" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10284,10 +10272,10 @@
         <v>1277</v>
       </c>
       <c r="G176" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="H176" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10310,10 +10298,10 @@
         <v>1277</v>
       </c>
       <c r="G177" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="H177" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10336,10 +10324,10 @@
         <v>1338</v>
       </c>
       <c r="G178" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="H178" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10362,10 +10350,10 @@
         <v>1277</v>
       </c>
       <c r="G179" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="H179" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10385,13 +10373,13 @@
         <v>1306</v>
       </c>
       <c r="F180" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="G180" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="H180" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10411,13 +10399,13 @@
         <v>1275</v>
       </c>
       <c r="F181" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="G181" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="H181" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10437,13 +10425,13 @@
         <v>1283</v>
       </c>
       <c r="F182" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="G182" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="H182" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10463,13 +10451,13 @@
         <v>1307</v>
       </c>
       <c r="F183" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="G183" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="H183" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10489,13 +10477,13 @@
         <v>1308</v>
       </c>
       <c r="F184" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G184" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="H184" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10515,13 +10503,13 @@
         <v>1292</v>
       </c>
       <c r="F185" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="G185" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="H185" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10541,13 +10529,13 @@
         <v>1276</v>
       </c>
       <c r="F186" t="s">
-        <v>1368</v>
+        <v>1340</v>
       </c>
       <c r="G186" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="H186" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10573,7 +10561,7 @@
         <v>993</v>
       </c>
       <c r="H187" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10596,10 +10584,10 @@
         <v>1277</v>
       </c>
       <c r="G188" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="H188" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10622,10 +10610,10 @@
         <v>1277</v>
       </c>
       <c r="G189" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="H189" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10645,13 +10633,13 @@
         <v>1309</v>
       </c>
       <c r="F190" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G190" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="H190" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10674,10 +10662,10 @@
         <v>1374</v>
       </c>
       <c r="G191" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="H191" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10700,10 +10688,10 @@
         <v>1338</v>
       </c>
       <c r="G192" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="H192" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10729,7 +10717,7 @@
         <v>993</v>
       </c>
       <c r="H193" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10749,13 +10737,13 @@
         <v>1299</v>
       </c>
       <c r="F194" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G194" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="H194" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10781,7 +10769,7 @@
         <v>937</v>
       </c>
       <c r="H195" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10804,10 +10792,10 @@
         <v>1338</v>
       </c>
       <c r="G196" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="H196" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10830,10 +10818,10 @@
         <v>1366</v>
       </c>
       <c r="G197" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="H197" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10853,13 +10841,13 @@
         <v>1283</v>
       </c>
       <c r="F198" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G198" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="H198" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10882,10 +10870,10 @@
         <v>1338</v>
       </c>
       <c r="G199" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="H199" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10911,7 +10899,7 @@
         <v>972</v>
       </c>
       <c r="H200" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10934,10 +10922,10 @@
         <v>1374</v>
       </c>
       <c r="G201" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="H201" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10963,7 +10951,7 @@
         <v>1000</v>
       </c>
       <c r="H202" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10986,10 +10974,10 @@
         <v>1284</v>
       </c>
       <c r="G203" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="H203" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11015,7 +11003,7 @@
         <v>1004</v>
       </c>
       <c r="H204" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11035,13 +11023,13 @@
         <v>1277</v>
       </c>
       <c r="F205" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G205" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="H205" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11064,10 +11052,10 @@
         <v>1374</v>
       </c>
       <c r="G206" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="H206" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11087,13 +11075,13 @@
         <v>1308</v>
       </c>
       <c r="F207" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="G207" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="H207" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11119,7 +11107,7 @@
         <v>1093</v>
       </c>
       <c r="H208" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11139,13 +11127,13 @@
         <v>1311</v>
       </c>
       <c r="F209" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G209" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="H209" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11168,10 +11156,10 @@
         <v>1277</v>
       </c>
       <c r="G210" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="H210" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11191,13 +11179,13 @@
         <v>1275</v>
       </c>
       <c r="F211" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="G211" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="H211" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11223,7 +11211,7 @@
         <v>952</v>
       </c>
       <c r="H212" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11246,10 +11234,10 @@
         <v>1338</v>
       </c>
       <c r="G213" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="H213" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11275,7 +11263,7 @@
         <v>1050</v>
       </c>
       <c r="H214" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11298,10 +11286,10 @@
         <v>1277</v>
       </c>
       <c r="G215" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="H215" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11321,13 +11309,13 @@
         <v>1310</v>
       </c>
       <c r="F216" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="G216" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="H216" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11347,13 +11335,13 @@
         <v>1277</v>
       </c>
       <c r="F217" t="s">
-        <v>1364</v>
+        <v>1383</v>
       </c>
       <c r="G217" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="H217" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11376,10 +11364,10 @@
         <v>1284</v>
       </c>
       <c r="G218" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="H218" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11402,10 +11390,10 @@
         <v>1367</v>
       </c>
       <c r="G219" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="H219" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11425,13 +11413,13 @@
         <v>1277</v>
       </c>
       <c r="F220" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="G220" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="H220" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11451,13 +11439,13 @@
         <v>1310</v>
       </c>
       <c r="F221" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G221" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="H221" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11480,10 +11468,10 @@
         <v>1284</v>
       </c>
       <c r="G222" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="H222" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11503,13 +11491,13 @@
         <v>1309</v>
       </c>
       <c r="F223" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G223" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="H223" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11535,7 +11523,7 @@
         <v>952</v>
       </c>
       <c r="H224" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11555,13 +11543,13 @@
         <v>1275</v>
       </c>
       <c r="F225" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G225" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="H225" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11581,13 +11569,13 @@
         <v>1310</v>
       </c>
       <c r="F226" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G226" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="H226" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11607,13 +11595,13 @@
         <v>1313</v>
       </c>
       <c r="F227" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="G227" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="H227" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11633,13 +11621,13 @@
         <v>1284</v>
       </c>
       <c r="F228" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="G228" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="H228" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11665,7 +11653,7 @@
         <v>1093</v>
       </c>
       <c r="H229" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11691,7 +11679,7 @@
         <v>935</v>
       </c>
       <c r="H230" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11717,7 +11705,7 @@
         <v>1093</v>
       </c>
       <c r="H231" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11740,10 +11728,10 @@
         <v>1374</v>
       </c>
       <c r="G232" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="H232" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11763,13 +11751,13 @@
         <v>1275</v>
       </c>
       <c r="F233" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G233" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="H233" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11792,10 +11780,10 @@
         <v>1293</v>
       </c>
       <c r="G234" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="H234" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11821,7 +11809,7 @@
         <v>952</v>
       </c>
       <c r="H235" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11844,10 +11832,10 @@
         <v>1293</v>
       </c>
       <c r="G236" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="H236" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11870,10 +11858,10 @@
         <v>1293</v>
       </c>
       <c r="G237" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="H237" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11896,10 +11884,10 @@
         <v>1374</v>
       </c>
       <c r="G238" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="H238" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11919,13 +11907,13 @@
         <v>1299</v>
       </c>
       <c r="F239" t="s">
-        <v>1400</v>
+        <v>1343</v>
       </c>
       <c r="G239" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="H239" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11945,13 +11933,13 @@
         <v>1284</v>
       </c>
       <c r="F240" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G240" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
       <c r="H240" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11977,7 +11965,7 @@
         <v>935</v>
       </c>
       <c r="H241" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -12000,10 +11988,10 @@
         <v>1401</v>
       </c>
       <c r="G242" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="H242" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12029,7 +12017,7 @@
         <v>952</v>
       </c>
       <c r="H243" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12055,7 +12043,7 @@
         <v>972</v>
       </c>
       <c r="H244" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12078,10 +12066,10 @@
         <v>1402</v>
       </c>
       <c r="G245" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="H245" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12104,10 +12092,10 @@
         <v>1374</v>
       </c>
       <c r="G246" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="H246" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12127,13 +12115,13 @@
         <v>1317</v>
       </c>
       <c r="F247" t="s">
-        <v>1403</v>
+        <v>1380</v>
       </c>
       <c r="G247" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="H247" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12153,13 +12141,13 @@
         <v>1275</v>
       </c>
       <c r="F248" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G248" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="H248" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12179,13 +12167,13 @@
         <v>1275</v>
       </c>
       <c r="F249" t="s">
-        <v>1346</v>
+        <v>1363</v>
       </c>
       <c r="G249" t="s">
-        <v>1622</v>
+        <v>1618</v>
       </c>
       <c r="H249" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12205,13 +12193,13 @@
         <v>1275</v>
       </c>
       <c r="F250" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G250" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="H250" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12237,7 +12225,7 @@
         <v>935</v>
       </c>
       <c r="H251" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12263,7 +12251,7 @@
         <v>989</v>
       </c>
       <c r="H252" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12289,7 +12277,7 @@
         <v>989</v>
       </c>
       <c r="H253" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12309,13 +12297,13 @@
         <v>1304</v>
       </c>
       <c r="F254" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G254" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="H254" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12338,10 +12326,10 @@
         <v>1277</v>
       </c>
       <c r="G255" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="H255" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12361,13 +12349,13 @@
         <v>1299</v>
       </c>
       <c r="F256" t="s">
-        <v>1400</v>
+        <v>1343</v>
       </c>
       <c r="G256" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
       <c r="H256" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12387,13 +12375,13 @@
         <v>1275</v>
       </c>
       <c r="F257" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G257" t="s">
-        <v>1627</v>
+        <v>1623</v>
       </c>
       <c r="H257" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12413,13 +12401,13 @@
         <v>1275</v>
       </c>
       <c r="F258" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G258" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="H258" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12445,7 +12433,7 @@
         <v>952</v>
       </c>
       <c r="H259" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12468,10 +12456,10 @@
         <v>1338</v>
       </c>
       <c r="G260" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="H260" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12494,10 +12482,10 @@
         <v>1293</v>
       </c>
       <c r="G261" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="H261" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12517,13 +12505,13 @@
         <v>1285</v>
       </c>
       <c r="F262" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G262" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="H262" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12546,10 +12534,10 @@
         <v>1277</v>
       </c>
       <c r="G263" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="H263" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12575,7 +12563,7 @@
         <v>1069</v>
       </c>
       <c r="H264" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12598,10 +12586,10 @@
         <v>1293</v>
       </c>
       <c r="G265" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="H265" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12621,13 +12609,13 @@
         <v>1284</v>
       </c>
       <c r="F266" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="G266" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="H266" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12647,13 +12635,13 @@
         <v>1284</v>
       </c>
       <c r="F267" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G267" t="s">
         <v>972</v>
       </c>
       <c r="H267" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12673,13 +12661,13 @@
         <v>1299</v>
       </c>
       <c r="F268" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G268" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="H268" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12699,13 +12687,13 @@
         <v>1275</v>
       </c>
       <c r="F269" t="s">
-        <v>1408</v>
+        <v>1336</v>
       </c>
       <c r="G269" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="H269" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12725,13 +12713,13 @@
         <v>1310</v>
       </c>
       <c r="F270" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="G270" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="H270" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12751,13 +12739,13 @@
         <v>1293</v>
       </c>
       <c r="F271" t="s">
-        <v>1409</v>
+        <v>1372</v>
       </c>
       <c r="G271" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="H271" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12777,13 +12765,13 @@
         <v>1278</v>
       </c>
       <c r="F272" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="G272" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="H272" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12803,13 +12791,13 @@
         <v>1285</v>
       </c>
       <c r="F273" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G273" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="H273" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12829,13 +12817,13 @@
         <v>1275</v>
       </c>
       <c r="F274" t="s">
-        <v>1364</v>
+        <v>1373</v>
       </c>
       <c r="G274" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="H274" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12861,7 +12849,7 @@
         <v>989</v>
       </c>
       <c r="H275" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12881,13 +12869,13 @@
         <v>1303</v>
       </c>
       <c r="F276" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="G276" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="H276" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12910,10 +12898,10 @@
         <v>1277</v>
       </c>
       <c r="G277" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="H277" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12933,13 +12921,13 @@
         <v>1278</v>
       </c>
       <c r="F278" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G278" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="H278" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12959,13 +12947,13 @@
         <v>1284</v>
       </c>
       <c r="F279" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G279" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="H279" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12985,13 +12973,13 @@
         <v>1318</v>
       </c>
       <c r="F280" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="G280" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="H280" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13011,13 +12999,13 @@
         <v>1275</v>
       </c>
       <c r="F281" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G281" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="H281" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13040,10 +13028,10 @@
         <v>1284</v>
       </c>
       <c r="G282" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="H282" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13063,13 +13051,13 @@
         <v>1275</v>
       </c>
       <c r="F283" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G283" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="H283" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13089,13 +13077,13 @@
         <v>1275</v>
       </c>
       <c r="F284" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="G284" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="H284" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13121,7 +13109,7 @@
         <v>1228</v>
       </c>
       <c r="H285" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13147,7 +13135,7 @@
         <v>989</v>
       </c>
       <c r="H286" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13167,13 +13155,13 @@
         <v>1275</v>
       </c>
       <c r="F287" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="G287" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="H287" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13199,7 +13187,7 @@
         <v>1119</v>
       </c>
       <c r="H288" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13225,7 +13213,7 @@
         <v>952</v>
       </c>
       <c r="H289" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13245,13 +13233,13 @@
         <v>1319</v>
       </c>
       <c r="F290" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="G290" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="H290" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13271,13 +13259,13 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1364</v>
+        <v>1373</v>
       </c>
       <c r="G291" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="H291" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13297,13 +13285,13 @@
         <v>1275</v>
       </c>
       <c r="F292" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="G292" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="H292" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13326,10 +13314,10 @@
         <v>1402</v>
       </c>
       <c r="G293" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="H293" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13352,10 +13340,10 @@
         <v>1338</v>
       </c>
       <c r="G294" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="H294" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13378,10 +13366,10 @@
         <v>1277</v>
       </c>
       <c r="G295" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="H295" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13401,13 +13389,13 @@
         <v>1320</v>
       </c>
       <c r="F296" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G296" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="H296" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13427,13 +13415,13 @@
         <v>1275</v>
       </c>
       <c r="F297" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G297" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="H297" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13453,13 +13441,13 @@
         <v>1275</v>
       </c>
       <c r="F298" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="G298" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="H298" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13482,10 +13470,10 @@
         <v>1284</v>
       </c>
       <c r="G299" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="H299" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13508,10 +13496,10 @@
         <v>1374</v>
       </c>
       <c r="G300" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="H300" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13537,7 +13525,7 @@
         <v>952</v>
       </c>
       <c r="H301" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13557,13 +13545,13 @@
         <v>1275</v>
       </c>
       <c r="F302" t="s">
-        <v>1376</v>
+        <v>1365</v>
       </c>
       <c r="G302" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="H302" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13583,13 +13571,13 @@
         <v>1284</v>
       </c>
       <c r="F303" t="s">
-        <v>1416</v>
+        <v>1344</v>
       </c>
       <c r="G303" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="H303" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13609,13 +13597,13 @@
         <v>1293</v>
       </c>
       <c r="F304" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="G304" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
       <c r="H304" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13635,13 +13623,13 @@
         <v>1275</v>
       </c>
       <c r="F305" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G305" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="H305" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13661,13 +13649,13 @@
         <v>1275</v>
       </c>
       <c r="F306" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G306" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="H306" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13687,13 +13675,13 @@
         <v>1284</v>
       </c>
       <c r="F307" t="s">
-        <v>1374</v>
+        <v>1340</v>
       </c>
       <c r="G307" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="H307" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13713,13 +13701,13 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="G308" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="H308" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13745,7 +13733,7 @@
         <v>989</v>
       </c>
       <c r="H309" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13771,7 +13759,7 @@
         <v>1004</v>
       </c>
       <c r="H310" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13797,7 +13785,7 @@
         <v>937</v>
       </c>
       <c r="H311" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13817,13 +13805,13 @@
         <v>1275</v>
       </c>
       <c r="F312" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G312" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="H312" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13849,7 +13837,7 @@
         <v>952</v>
       </c>
       <c r="H313" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13872,10 +13860,10 @@
         <v>1293</v>
       </c>
       <c r="G314" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="H314" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13901,7 +13889,7 @@
         <v>1093</v>
       </c>
       <c r="H315" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13927,7 +13915,7 @@
         <v>1093</v>
       </c>
       <c r="H316" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13953,7 +13941,7 @@
         <v>972</v>
       </c>
       <c r="H317" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13976,10 +13964,10 @@
         <v>1374</v>
       </c>
       <c r="G318" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="H318" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -14005,7 +13993,7 @@
         <v>952</v>
       </c>
       <c r="H319" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14031,7 +14019,7 @@
         <v>952</v>
       </c>
       <c r="H320" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14051,13 +14039,13 @@
         <v>1293</v>
       </c>
       <c r="F321" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="G321" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="H321" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14077,13 +14065,13 @@
         <v>1275</v>
       </c>
       <c r="F322" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="G322" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="H322" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14103,13 +14091,13 @@
         <v>1275</v>
       </c>
       <c r="F323" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G323" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="H323" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14132,10 +14120,10 @@
         <v>1338</v>
       </c>
       <c r="G324" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="H324" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14161,7 +14149,7 @@
         <v>1175</v>
       </c>
       <c r="H325" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14184,10 +14172,10 @@
         <v>1374</v>
       </c>
       <c r="G326" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="H326" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14210,10 +14198,10 @@
         <v>1374</v>
       </c>
       <c r="G327" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="H327" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14233,13 +14221,13 @@
         <v>1284</v>
       </c>
       <c r="F328" t="s">
-        <v>1417</v>
+        <v>1352</v>
       </c>
       <c r="G328" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="H328" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14259,13 +14247,13 @@
         <v>1309</v>
       </c>
       <c r="F329" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G329" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="H329" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14285,13 +14273,13 @@
         <v>1278</v>
       </c>
       <c r="F330" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G330" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="H330" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14317,7 +14305,7 @@
         <v>952</v>
       </c>
       <c r="H331" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14343,7 +14331,7 @@
         <v>1093</v>
       </c>
       <c r="H332" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14363,13 +14351,13 @@
         <v>1275</v>
       </c>
       <c r="F333" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G333" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="H333" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14389,13 +14377,13 @@
         <v>1284</v>
       </c>
       <c r="F334" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="G334" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="H334" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14418,10 +14406,10 @@
         <v>1374</v>
       </c>
       <c r="G335" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="H335" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14444,10 +14432,10 @@
         <v>1277</v>
       </c>
       <c r="G336" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="H336" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14467,13 +14455,13 @@
         <v>1296</v>
       </c>
       <c r="F337" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="G337" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="H337" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14496,10 +14484,10 @@
         <v>1284</v>
       </c>
       <c r="G338" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="H338" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14519,13 +14507,13 @@
         <v>1275</v>
       </c>
       <c r="F339" t="s">
-        <v>1376</v>
+        <v>1365</v>
       </c>
       <c r="G339" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="H339" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14551,7 +14539,7 @@
         <v>1184</v>
       </c>
       <c r="H340" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14571,13 +14559,13 @@
         <v>1321</v>
       </c>
       <c r="F341" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="G341" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="H341" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14597,13 +14585,13 @@
         <v>1310</v>
       </c>
       <c r="F342" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
       <c r="G342" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="H342" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14623,13 +14611,13 @@
         <v>1310</v>
       </c>
       <c r="F343" t="s">
-        <v>1423</v>
+        <v>1366</v>
       </c>
       <c r="G343" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="H343" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14649,13 +14637,13 @@
         <v>1296</v>
       </c>
       <c r="F344" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G344" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="H344" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14678,10 +14666,10 @@
         <v>1366</v>
       </c>
       <c r="G345" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="H345" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14704,10 +14692,10 @@
         <v>1293</v>
       </c>
       <c r="G346" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="H346" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14727,13 +14715,13 @@
         <v>1316</v>
       </c>
       <c r="F347" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G347" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="H347" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14753,13 +14741,13 @@
         <v>1275</v>
       </c>
       <c r="F348" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G348" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="H348" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14779,13 +14767,13 @@
         <v>1299</v>
       </c>
       <c r="F349" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="G349" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="H349" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14805,13 +14793,13 @@
         <v>1323</v>
       </c>
       <c r="F350" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="G350" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="H350" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14831,13 +14819,13 @@
         <v>1278</v>
       </c>
       <c r="F351" t="s">
-        <v>1368</v>
+        <v>1340</v>
       </c>
       <c r="G351" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="H351" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14857,13 +14845,13 @@
         <v>1299</v>
       </c>
       <c r="F352" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="G352" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
       <c r="H352" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14889,7 +14877,7 @@
         <v>952</v>
       </c>
       <c r="H353" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14915,7 +14903,7 @@
         <v>989</v>
       </c>
       <c r="H354" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14941,7 +14929,7 @@
         <v>1093</v>
       </c>
       <c r="H355" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14961,13 +14949,13 @@
         <v>1275</v>
       </c>
       <c r="F356" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="G356" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="H356" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14987,13 +14975,13 @@
         <v>1278</v>
       </c>
       <c r="F357" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G357" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="H357" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15013,13 +15001,13 @@
         <v>1321</v>
       </c>
       <c r="F358" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="G358" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="H358" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15045,7 +15033,7 @@
         <v>972</v>
       </c>
       <c r="H359" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15065,13 +15053,13 @@
         <v>1284</v>
       </c>
       <c r="F360" t="s">
-        <v>1376</v>
+        <v>1365</v>
       </c>
       <c r="G360" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="H360" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15091,13 +15079,13 @@
         <v>1324</v>
       </c>
       <c r="F361" t="s">
-        <v>1427</v>
+        <v>1422</v>
       </c>
       <c r="G361" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="H361" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15117,13 +15105,13 @@
         <v>1297</v>
       </c>
       <c r="F362" t="s">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="G362" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="H362" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15149,7 +15137,7 @@
         <v>989</v>
       </c>
       <c r="H363" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15169,13 +15157,13 @@
         <v>1278</v>
       </c>
       <c r="F364" t="s">
-        <v>1368</v>
+        <v>1340</v>
       </c>
       <c r="G364" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="H364" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15198,10 +15186,10 @@
         <v>1277</v>
       </c>
       <c r="G365" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="H365" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15221,13 +15209,13 @@
         <v>1285</v>
       </c>
       <c r="F366" t="s">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="G366" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="H366" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15247,13 +15235,13 @@
         <v>1278</v>
       </c>
       <c r="F367" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G367" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="H367" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15273,13 +15261,13 @@
         <v>1278</v>
       </c>
       <c r="F368" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="G368" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="H368" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15299,13 +15287,13 @@
         <v>1293</v>
       </c>
       <c r="F369" t="s">
-        <v>1409</v>
+        <v>1426</v>
       </c>
       <c r="G369" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="H369" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15331,7 +15319,7 @@
         <v>1119</v>
       </c>
       <c r="H370" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15354,10 +15342,10 @@
         <v>1338</v>
       </c>
       <c r="G371" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="H371" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15380,10 +15368,10 @@
         <v>1374</v>
       </c>
       <c r="G372" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="H372" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15403,13 +15391,13 @@
         <v>1321</v>
       </c>
       <c r="F373" t="s">
-        <v>1338</v>
+        <v>1383</v>
       </c>
       <c r="G373" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="H373" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15429,13 +15417,13 @@
         <v>1284</v>
       </c>
       <c r="F374" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="G374" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="H374" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15458,10 +15446,10 @@
         <v>1338</v>
       </c>
       <c r="G375" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="H375" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15484,10 +15472,10 @@
         <v>1357</v>
       </c>
       <c r="G376" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="H376" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15507,13 +15495,13 @@
         <v>1284</v>
       </c>
       <c r="F377" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="G377" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="H377" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15533,7 +15521,7 @@
         <v>1284</v>
       </c>
       <c r="H378" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15559,7 +15547,7 @@
         <v>1119</v>
       </c>
       <c r="H379" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15579,13 +15567,13 @@
         <v>1278</v>
       </c>
       <c r="F380" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="G380" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="H380" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15608,10 +15596,10 @@
         <v>1402</v>
       </c>
       <c r="G381" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="H381" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15631,13 +15619,13 @@
         <v>1284</v>
       </c>
       <c r="F382" t="s">
-        <v>1368</v>
+        <v>1340</v>
       </c>
       <c r="G382" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="H382" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15657,13 +15645,13 @@
         <v>1325</v>
       </c>
       <c r="F383" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
       <c r="G383" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="H383" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15686,10 +15674,10 @@
         <v>1374</v>
       </c>
       <c r="G384" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="H384" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15712,10 +15700,10 @@
         <v>1293</v>
       </c>
       <c r="G385" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="H385" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15735,13 +15723,13 @@
         <v>1326</v>
       </c>
       <c r="F386" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
       <c r="G386" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="H386" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15761,13 +15749,13 @@
         <v>1327</v>
       </c>
       <c r="F387" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="G387" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="H387" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15787,13 +15775,13 @@
         <v>1328</v>
       </c>
       <c r="F388" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="G388" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="H388" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15813,13 +15801,13 @@
         <v>1278</v>
       </c>
       <c r="F389" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G389" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="H389" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15839,13 +15827,13 @@
         <v>1324</v>
       </c>
       <c r="F390" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="G390" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="H390" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15871,7 +15859,7 @@
         <v>1000</v>
       </c>
       <c r="H391" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15894,10 +15882,10 @@
         <v>1374</v>
       </c>
       <c r="G392" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="H392" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15920,10 +15908,10 @@
         <v>1374</v>
       </c>
       <c r="G393" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="H393" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15946,10 +15934,10 @@
         <v>1277</v>
       </c>
       <c r="G394" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="H394" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15972,10 +15960,10 @@
         <v>1374</v>
       </c>
       <c r="G395" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="H395" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -15998,10 +15986,10 @@
         <v>1284</v>
       </c>
       <c r="G396" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="H396" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16021,13 +16009,13 @@
         <v>1278</v>
       </c>
       <c r="F397" t="s">
-        <v>1356</v>
+        <v>1435</v>
       </c>
       <c r="G397" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="H397" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16047,13 +16035,13 @@
         <v>1284</v>
       </c>
       <c r="F398" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
       <c r="G398" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="H398" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16073,13 +16061,13 @@
         <v>1284</v>
       </c>
       <c r="F399" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G399" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="H399" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16102,10 +16090,10 @@
         <v>1374</v>
       </c>
       <c r="G400" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="H400" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16125,13 +16113,13 @@
         <v>1278</v>
       </c>
       <c r="F401" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="G401" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="H401" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16154,10 +16142,10 @@
         <v>1374</v>
       </c>
       <c r="G402" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
       <c r="H402" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16177,13 +16165,13 @@
         <v>1284</v>
       </c>
       <c r="F403" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="G403" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="H403" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16203,13 +16191,13 @@
         <v>1303</v>
       </c>
       <c r="F404" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="G404" t="s">
-        <v>1618</v>
+        <v>1614</v>
       </c>
       <c r="H404" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16235,7 +16223,7 @@
         <v>1228</v>
       </c>
       <c r="H405" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16261,7 +16249,7 @@
         <v>1228</v>
       </c>
       <c r="H406" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16281,13 +16269,13 @@
         <v>1284</v>
       </c>
       <c r="F407" t="s">
-        <v>1368</v>
+        <v>1374</v>
       </c>
       <c r="G407" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="H407" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16310,10 +16298,10 @@
         <v>1338</v>
       </c>
       <c r="G408" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="H408" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16333,13 +16321,13 @@
         <v>1324</v>
       </c>
       <c r="F409" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="G409" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="H409" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16365,7 +16353,7 @@
         <v>1093</v>
       </c>
       <c r="H410" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16385,13 +16373,13 @@
         <v>1293</v>
       </c>
       <c r="F411" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="G411" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="H411" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16414,10 +16402,10 @@
         <v>1284</v>
       </c>
       <c r="G412" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="H412" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16437,13 +16425,13 @@
         <v>1284</v>
       </c>
       <c r="F413" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G413" t="s">
         <v>972</v>
       </c>
       <c r="H413" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16469,7 +16457,7 @@
         <v>1235</v>
       </c>
       <c r="H414" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16489,13 +16477,13 @@
         <v>1323</v>
       </c>
       <c r="F415" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="G415" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="H415" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16515,13 +16503,13 @@
         <v>1284</v>
       </c>
       <c r="F416" t="s">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="G416" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="H416" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16541,13 +16529,13 @@
         <v>1311</v>
       </c>
       <c r="F417" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G417" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="H417" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16567,13 +16555,13 @@
         <v>1284</v>
       </c>
       <c r="F418" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="G418" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="H418" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16593,13 +16581,13 @@
         <v>1329</v>
       </c>
       <c r="F419" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G419" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="H419" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16622,10 +16610,10 @@
         <v>1284</v>
       </c>
       <c r="G420" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="H420" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16648,10 +16636,10 @@
         <v>1284</v>
       </c>
       <c r="G421" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="H421" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16671,13 +16659,13 @@
         <v>1330</v>
       </c>
       <c r="F422" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="G422" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="H422" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16697,13 +16685,13 @@
         <v>1294</v>
       </c>
       <c r="F423" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G423" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="H423" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16723,13 +16711,13 @@
         <v>1284</v>
       </c>
       <c r="F424" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="G424" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="H424" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16749,13 +16737,13 @@
         <v>1293</v>
       </c>
       <c r="F425" t="s">
-        <v>1370</v>
+        <v>1384</v>
       </c>
       <c r="G425" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="H425" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16775,13 +16763,13 @@
         <v>1285</v>
       </c>
       <c r="F426" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G426" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="H426" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16807,7 +16795,7 @@
         <v>1069</v>
       </c>
       <c r="H427" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16833,7 +16821,7 @@
         <v>1246</v>
       </c>
       <c r="H428" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16853,13 +16841,13 @@
         <v>1297</v>
       </c>
       <c r="F429" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="G429" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="H429" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16879,13 +16867,13 @@
         <v>1329</v>
       </c>
       <c r="F430" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G430" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="H430" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16911,7 +16899,7 @@
         <v>1119</v>
       </c>
       <c r="H431" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16934,10 +16922,10 @@
         <v>1293</v>
       </c>
       <c r="G432" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="H432" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16957,13 +16945,13 @@
         <v>1284</v>
       </c>
       <c r="F433" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G433" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="H433" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16983,13 +16971,13 @@
         <v>1293</v>
       </c>
       <c r="F434" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="G434" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="H434" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17012,10 +17000,10 @@
         <v>1374</v>
       </c>
       <c r="G435" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="H435" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17041,7 +17029,7 @@
         <v>1093</v>
       </c>
       <c r="H436" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17061,13 +17049,13 @@
         <v>1293</v>
       </c>
       <c r="F437" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="G437" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="H437" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17090,10 +17078,10 @@
         <v>1338</v>
       </c>
       <c r="G438" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="H438" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17113,13 +17101,13 @@
         <v>1284</v>
       </c>
       <c r="F439" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="G439" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="H439" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17145,7 +17133,7 @@
         <v>952</v>
       </c>
       <c r="H440" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17168,10 +17156,10 @@
         <v>1284</v>
       </c>
       <c r="G441" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="H441" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17197,7 +17185,7 @@
         <v>1093</v>
       </c>
       <c r="H442" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17220,10 +17208,10 @@
         <v>1277</v>
       </c>
       <c r="G443" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="H443" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17246,10 +17234,10 @@
         <v>1338</v>
       </c>
       <c r="G444" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="H444" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17269,13 +17257,13 @@
         <v>1278</v>
       </c>
       <c r="F445" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="G445" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="H445" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17295,13 +17283,13 @@
         <v>1278</v>
       </c>
       <c r="F446" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="G446" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="H446" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17327,7 +17315,7 @@
         <v>972</v>
       </c>
       <c r="H447" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17347,13 +17335,13 @@
         <v>1278</v>
       </c>
       <c r="F448" t="s">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="G448" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="H448" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17373,13 +17361,13 @@
         <v>1331</v>
       </c>
       <c r="F449" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="G449" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="H449" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17399,13 +17387,13 @@
         <v>1278</v>
       </c>
       <c r="F450" t="s">
-        <v>1368</v>
+        <v>1340</v>
       </c>
       <c r="G450" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="H450" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17428,10 +17416,10 @@
         <v>1293</v>
       </c>
       <c r="G451" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="H451" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17451,13 +17439,13 @@
         <v>1284</v>
       </c>
       <c r="F452" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="G452" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="H452" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17477,13 +17465,13 @@
         <v>1293</v>
       </c>
       <c r="F453" t="s">
-        <v>1338</v>
+        <v>1383</v>
       </c>
       <c r="G453" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="H453" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17509,7 +17497,7 @@
         <v>1004</v>
       </c>
       <c r="H454" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17529,13 +17517,13 @@
         <v>1293</v>
       </c>
       <c r="F455" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="G455" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="H455" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17555,13 +17543,13 @@
         <v>1332</v>
       </c>
       <c r="F456" t="s">
-        <v>1346</v>
+        <v>1363</v>
       </c>
       <c r="G456" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="H456" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17581,13 +17569,13 @@
         <v>1333</v>
       </c>
       <c r="F457" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="G457" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="H457" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17607,13 +17595,13 @@
         <v>1278</v>
       </c>
       <c r="F458" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="G458" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="H458" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17639,7 +17627,7 @@
         <v>972</v>
       </c>
       <c r="H459" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17665,7 +17653,7 @@
         <v>1119</v>
       </c>
       <c r="H460" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17685,13 +17673,13 @@
         <v>1293</v>
       </c>
       <c r="F461" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G461" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="H461" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17717,7 +17705,7 @@
         <v>952</v>
       </c>
       <c r="H462" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17737,13 +17725,13 @@
         <v>1321</v>
       </c>
       <c r="F463" t="s">
-        <v>1409</v>
+        <v>1426</v>
       </c>
       <c r="G463" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="H463" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -17769,7 +17757,7 @@
         <v>972</v>
       </c>
       <c r="H464" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -17792,10 +17780,10 @@
         <v>1277</v>
       </c>
       <c r="G465" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="H465" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Categorization/plsa-partial-ner.xlsx
+++ b/Results/Categorization/plsa-partial-ner.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="1776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3247" uniqueCount="1763">
   <si>
     <t>id</t>
   </si>
@@ -4027,222 +4027,219 @@
     <t>SERVICE|AMBIENCE|SERVICE</t>
   </si>
   <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|FOOD|FOOD|FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE</t>
+  </si>
+  <si>
     <t>FOOD|AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|FOOD|FOOD|FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
     <t>SERVICE|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|SERVICE|FOOD|AMBIENCE|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE</t>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|AMBIENCE|FOOD</t>
   </si>
   <si>
     <t>SERVICE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|PRICES|PRICES</t>
+    <t>FOOD|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>PRICES|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|SERVICE|SERVICE</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|AMBIENCE|FOOD</t>
+    <t>SERVICE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|PRICES|SERVICE|AMBIENCE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|SERVICE</t>
   </si>
   <si>
     <t>FOOD|FOOD|SERVICE|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|FOOD|FOOD|SERVICE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>PRICES|SERVICE|PRICES</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|PRICES|SERVICE|AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE</t>
-  </si>
-  <si>
     <t>FOOD|PRICES|FOOD|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
     <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
@@ -4252,7 +4249,7 @@
     <t>FOOD|PRICES|FOOD|AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|SERVICE|SERVICE|FOOD|AMBIENCE</t>
+    <t>SERVICE|SERVICE|FOOD|AMBIENCE</t>
   </si>
   <si>
     <t>AMBIENCE|PRICES</t>
@@ -4264,7 +4261,7 @@
     <t>PRICES|AMBIENCE|PRICES</t>
   </si>
   <si>
-    <t>FOOD|FOOD|SERVICE|PRICES</t>
+    <t>FOOD|FOOD|PRICES</t>
   </si>
   <si>
     <t>PRICES|AMBIENCE|AMBIENCE|PRICES</t>
@@ -4273,7 +4270,7 @@
     <t>AMBIENCE|AMBIENCE|SERVICE</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|SERVICE|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|PRICES|SERVICE|FOOD|FOOD|FOOD</t>
@@ -4297,10 +4294,7 @@
     <t>PRICES|AMBIENCE</t>
   </si>
   <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
+    <t>AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
     <t>FOOD|PRICES|FOOD|AMBIENCE</t>
@@ -4309,7 +4303,7 @@
     <t>FOOD|PRICES|PRICES|PRICES|PRICES</t>
   </si>
   <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|SERVICE|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|SERVICE|FOOD|SERVICE|SERVICE</t>
@@ -4333,22 +4327,16 @@
     <t>FOOD|PRICES|PRICES|SERVICE</t>
   </si>
   <si>
-    <t>FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
     <t>FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>AMBIENCE|SERVICE|SERVICE|SERVICE|AMBIENCE</t>
   </si>
   <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
     <t>PRICES|FOOD|AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>PRICES|FOOD|AMBIENCE|AMBIENCE|PRICES</t>
+    <t>PRICES|FOOD|AMBIENCE|PRICES</t>
   </si>
   <si>
     <t>FOOD|SERVICE|FOOD|FOOD|FOOD</t>
@@ -4360,7 +4348,7 @@
     <t>staff|place|like</t>
   </si>
   <si>
-    <t>food|good|always|time</t>
+    <t>food|good|always</t>
   </si>
   <si>
     <t>always</t>
@@ -4438,7 +4426,7 @@
     <t>like</t>
   </si>
   <si>
-    <t>service|nice|time|time</t>
+    <t>service|nice</t>
   </si>
   <si>
     <t>food|like</t>
@@ -4447,7 +4435,7 @@
     <t>nice|ambience|would|best</t>
   </si>
   <si>
-    <t>river|idea|view|chart|house</t>
+    <t>idea|view|chart|house</t>
   </si>
   <si>
     <t>food|price|service|great|great|great|reasonable|even</t>
@@ -4501,10 +4489,10 @@
     <t>food|service|great|excellent|delicious|decor</t>
   </si>
   <si>
-    <t>hostess|point</t>
-  </si>
-  <si>
-    <t>food|service|great|place|always|wine|time</t>
+    <t>point</t>
+  </si>
+  <si>
+    <t>food|service|great|place|always|wine</t>
   </si>
   <si>
     <t>wait|would</t>
@@ -4513,7 +4501,7 @@
     <t>great|wait|always|wine</t>
   </si>
   <si>
-    <t>friendly|always|time</t>
+    <t>friendly|always</t>
   </si>
   <si>
     <t>like|pizza</t>
@@ -4660,9 +4648,6 @@
     <t>great|decor</t>
   </si>
   <si>
-    <t>atmosphere|time</t>
-  </si>
-  <si>
     <t>food|food|delicious</t>
   </si>
   <si>
@@ -4675,9 +4660,6 @@
     <t>workers|bagel|cream|cheese</t>
   </si>
   <si>
-    <t>food|service|time</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -4702,7 +4684,7 @@
     <t>food|restaurant|delicious|fresh|fresh</t>
   </si>
   <si>
-    <t>hats|chef</t>
+    <t>hats</t>
   </si>
   <si>
     <t>delicious|fresh</t>
@@ -4738,19 +4720,16 @@
     <t>nice</t>
   </si>
   <si>
-    <t>fresh|time</t>
-  </si>
-  <si>
     <t>food|staff|place|delicious</t>
   </si>
   <si>
     <t>make|even</t>
   </si>
   <si>
-    <t>food|good|service|time</t>
-  </si>
-  <si>
-    <t>food|good|good|service|service|time|time</t>
+    <t>food|good|service</t>
+  </si>
+  <si>
+    <t>food|good|good|service|service</t>
   </si>
   <si>
     <t>place|atmosphere|wine</t>
@@ -4777,7 +4756,7 @@
     <t>service|great|ambience</t>
   </si>
   <si>
-    <t>food|service|restaurant|excellent|time</t>
+    <t>food|service|restaurant|excellent</t>
   </si>
   <si>
     <t>mignon|dish</t>
@@ -4888,12 +4867,6 @@
     <t>nice|staff|wait|though</t>
   </si>
   <si>
-    <t>service|time</t>
-  </si>
-  <si>
-    <t>restaurant|time</t>
-  </si>
-  <si>
     <t>seats|wall|benches</t>
   </si>
   <si>
@@ -4945,19 +4918,16 @@
     <t>service|restaurant</t>
   </si>
   <si>
-    <t>gentleman|manager|table|smile|order</t>
+    <t>gentleman|table|smile|order</t>
   </si>
   <si>
     <t>food|price|great</t>
   </si>
   <si>
-    <t>make|time</t>
-  </si>
-  <si>
     <t>nice|staff|really</t>
   </si>
   <si>
-    <t>staff|wait|time</t>
+    <t>staff|wait</t>
   </si>
   <si>
     <t>staff|friendly|meal</t>
@@ -4984,16 +4954,13 @@
     <t>price|pizza|even</t>
   </si>
   <si>
-    <t>staff|wait</t>
-  </si>
-  <si>
     <t>great|place</t>
   </si>
   <si>
     <t>price|place|worth</t>
   </si>
   <si>
-    <t>cheese|sandwich|manager|business</t>
+    <t>cheese|sandwich|business</t>
   </si>
   <si>
     <t>place|even</t>
@@ -5044,7 +5011,7 @@
     <t>price|great|though</t>
   </si>
   <si>
-    <t>staff|place|like|make|excellent|ambience|time</t>
+    <t>staff|place|like|make|excellent|ambience</t>
   </si>
   <si>
     <t>food|price|service|great|great|great</t>
@@ -5089,7 +5056,7 @@
     <t>toons|redone|space</t>
   </si>
   <si>
-    <t>location|delight|seating|yorkie</t>
+    <t>delight|seating|yorkie</t>
   </si>
   <si>
     <t>food|price|great|reasonable</t>
@@ -5107,7 +5074,7 @@
     <t>nice|atmosphere</t>
   </si>
   <si>
-    <t>food|price|price|good|restaurant|staff|friendly|like|make|make|decor|time</t>
+    <t>food|price|price|good|restaurant|staff|friendly|like|make|make|decor</t>
   </si>
   <si>
     <t>food|price|good|service|restaurant|staff|wait</t>
@@ -5137,9 +5104,6 @@
     <t>food|price|great|excellent</t>
   </si>
   <si>
-    <t>place|time</t>
-  </si>
-  <si>
     <t>restaurant|nice|though</t>
   </si>
   <si>
@@ -5176,9 +5140,6 @@
     <t>nice|atmosphere|make</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>wine|dinner</t>
   </si>
   <si>
@@ -5200,7 +5161,7 @@
     <t>would|dinner</t>
   </si>
   <si>
-    <t>food|good|would|time|dinner</t>
+    <t>food|good|would|dinner</t>
   </si>
   <si>
     <t>would|meal|dinner</t>
@@ -5218,7 +5179,7 @@
     <t>stone|bowl</t>
   </si>
   <si>
-    <t>price|good|great|time|reasonable</t>
+    <t>price|good|great|reasonable</t>
   </si>
   <si>
     <t>service|even</t>
@@ -5748,10 +5709,10 @@
         <v>1336</v>
       </c>
       <c r="G2" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
       <c r="H2" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5777,7 +5738,7 @@
         <v>937</v>
       </c>
       <c r="H3" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5800,10 +5761,10 @@
         <v>1337</v>
       </c>
       <c r="G4" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
       <c r="H4" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5826,10 +5787,10 @@
         <v>1277</v>
       </c>
       <c r="G5" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="H5" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5852,10 +5813,10 @@
         <v>1338</v>
       </c>
       <c r="G6" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="H6" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5878,10 +5839,10 @@
         <v>1339</v>
       </c>
       <c r="G7" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="H7" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5904,10 +5865,10 @@
         <v>1340</v>
       </c>
       <c r="G8" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="H8" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5930,10 +5891,10 @@
         <v>1341</v>
       </c>
       <c r="G9" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
       <c r="H9" t="s">
-        <v>1745</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5956,10 +5917,10 @@
         <v>1342</v>
       </c>
       <c r="G10" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="H10" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5982,10 +5943,10 @@
         <v>1343</v>
       </c>
       <c r="G11" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
       <c r="H11" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6008,10 +5969,10 @@
         <v>1277</v>
       </c>
       <c r="G12" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="H12" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6037,7 +5998,7 @@
         <v>937</v>
       </c>
       <c r="H13" t="s">
-        <v>1745</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6060,10 +6021,10 @@
         <v>1277</v>
       </c>
       <c r="G14" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="H14" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6086,10 +6047,10 @@
         <v>1277</v>
       </c>
       <c r="G15" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="H15" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6112,10 +6073,10 @@
         <v>1344</v>
       </c>
       <c r="G16" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
       <c r="H16" t="s">
-        <v>1747</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6138,10 +6099,10 @@
         <v>1345</v>
       </c>
       <c r="G17" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="H17" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6164,10 +6125,10 @@
         <v>1338</v>
       </c>
       <c r="G18" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="H18" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6190,10 +6151,10 @@
         <v>1346</v>
       </c>
       <c r="G19" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="H19" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6219,7 +6180,7 @@
         <v>937</v>
       </c>
       <c r="H20" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6242,10 +6203,10 @@
         <v>1347</v>
       </c>
       <c r="G21" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="H21" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6271,7 +6232,7 @@
         <v>1124</v>
       </c>
       <c r="H22" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6297,7 +6258,7 @@
         <v>937</v>
       </c>
       <c r="H23" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6323,7 +6284,7 @@
         <v>952</v>
       </c>
       <c r="H24" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6346,10 +6307,10 @@
         <v>1348</v>
       </c>
       <c r="G25" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="H25" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6372,10 +6333,10 @@
         <v>1338</v>
       </c>
       <c r="G26" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="H26" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6401,7 +6362,7 @@
         <v>952</v>
       </c>
       <c r="H27" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6424,10 +6385,10 @@
         <v>1349</v>
       </c>
       <c r="G28" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="H28" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6450,10 +6411,10 @@
         <v>1338</v>
       </c>
       <c r="G29" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="H29" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6476,10 +6437,10 @@
         <v>1277</v>
       </c>
       <c r="G30" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="H30" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6502,10 +6463,10 @@
         <v>1350</v>
       </c>
       <c r="G31" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="H31" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6528,10 +6489,10 @@
         <v>1351</v>
       </c>
       <c r="G32" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="H32" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6554,10 +6515,10 @@
         <v>1352</v>
       </c>
       <c r="G33" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="H33" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6580,10 +6541,10 @@
         <v>1338</v>
       </c>
       <c r="G34" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="H34" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6606,10 +6567,10 @@
         <v>1277</v>
       </c>
       <c r="G35" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="H35" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6632,10 +6593,10 @@
         <v>1353</v>
       </c>
       <c r="G36" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="H36" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6658,10 +6619,10 @@
         <v>1277</v>
       </c>
       <c r="G37" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="H37" t="s">
-        <v>1749</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6684,10 +6645,10 @@
         <v>1354</v>
       </c>
       <c r="G38" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="H38" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6710,10 +6671,10 @@
         <v>1284</v>
       </c>
       <c r="G39" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="H39" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6736,10 +6697,10 @@
         <v>1338</v>
       </c>
       <c r="G40" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="H40" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6762,10 +6723,10 @@
         <v>1344</v>
       </c>
       <c r="G41" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="H41" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6788,10 +6749,10 @@
         <v>1355</v>
       </c>
       <c r="G42" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="H42" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6814,10 +6775,10 @@
         <v>1356</v>
       </c>
       <c r="G43" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="H43" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6840,10 +6801,10 @@
         <v>1349</v>
       </c>
       <c r="G44" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="H44" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6866,10 +6827,10 @@
         <v>1357</v>
       </c>
       <c r="G45" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="H45" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6895,7 +6856,7 @@
         <v>972</v>
       </c>
       <c r="H46" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6921,7 +6882,7 @@
         <v>937</v>
       </c>
       <c r="H47" t="s">
-        <v>1750</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6944,10 +6905,10 @@
         <v>1338</v>
       </c>
       <c r="G48" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="H48" t="s">
-        <v>1751</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6970,10 +6931,10 @@
         <v>1338</v>
       </c>
       <c r="G49" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="H49" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -6996,10 +6957,10 @@
         <v>1338</v>
       </c>
       <c r="G50" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="H50" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7022,10 +6983,10 @@
         <v>1358</v>
       </c>
       <c r="G51" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="H51" t="s">
-        <v>1752</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7048,10 +7009,10 @@
         <v>1338</v>
       </c>
       <c r="G52" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="H52" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7074,10 +7035,10 @@
         <v>1359</v>
       </c>
       <c r="G53" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="H53" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7100,10 +7061,10 @@
         <v>1349</v>
       </c>
       <c r="G54" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="H54" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7126,10 +7087,10 @@
         <v>1338</v>
       </c>
       <c r="G55" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="H55" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7152,10 +7113,10 @@
         <v>1338</v>
       </c>
       <c r="G56" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="H56" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7178,10 +7139,10 @@
         <v>1360</v>
       </c>
       <c r="G57" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="H57" t="s">
-        <v>1753</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7201,13 +7162,13 @@
         <v>1290</v>
       </c>
       <c r="F58" t="s">
-        <v>1361</v>
+        <v>1337</v>
       </c>
       <c r="G58" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="H58" t="s">
-        <v>1754</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7230,10 +7191,10 @@
         <v>1339</v>
       </c>
       <c r="G59" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="H59" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7256,10 +7217,10 @@
         <v>1350</v>
       </c>
       <c r="G60" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="H60" t="s">
-        <v>1755</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7279,13 +7240,13 @@
         <v>1291</v>
       </c>
       <c r="F61" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="G61" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="H61" t="s">
-        <v>1753</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7305,13 +7266,13 @@
         <v>1275</v>
       </c>
       <c r="F62" t="s">
-        <v>1363</v>
+        <v>1284</v>
       </c>
       <c r="G62" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="H62" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7337,7 +7298,7 @@
         <v>937</v>
       </c>
       <c r="H63" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7357,13 +7318,13 @@
         <v>1289</v>
       </c>
       <c r="F64" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G64" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="H64" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7383,13 +7344,13 @@
         <v>1275</v>
       </c>
       <c r="F65" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G65" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="H65" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7409,13 +7370,13 @@
         <v>1277</v>
       </c>
       <c r="F66" t="s">
-        <v>1337</v>
+        <v>1364</v>
       </c>
       <c r="G66" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="H66" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7438,10 +7399,10 @@
         <v>1346</v>
       </c>
       <c r="G67" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="H67" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7461,13 +7422,13 @@
         <v>1275</v>
       </c>
       <c r="F68" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="G68" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="H68" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7490,10 +7451,10 @@
         <v>1338</v>
       </c>
       <c r="G69" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="H69" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7519,7 +7480,7 @@
         <v>993</v>
       </c>
       <c r="H70" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7542,10 +7503,10 @@
         <v>1277</v>
       </c>
       <c r="G71" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="H71" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7568,10 +7529,10 @@
         <v>1277</v>
       </c>
       <c r="G72" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="H72" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7597,7 +7558,7 @@
         <v>937</v>
       </c>
       <c r="H73" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7620,10 +7581,10 @@
         <v>1351</v>
       </c>
       <c r="G74" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="H74" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7646,10 +7607,10 @@
         <v>1336</v>
       </c>
       <c r="G75" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="H75" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7669,13 +7630,13 @@
         <v>1283</v>
       </c>
       <c r="F76" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G76" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="H76" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7701,7 +7662,7 @@
         <v>989</v>
       </c>
       <c r="H77" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7727,7 +7688,7 @@
         <v>999</v>
       </c>
       <c r="H78" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7750,10 +7711,10 @@
         <v>1338</v>
       </c>
       <c r="G79" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="H79" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7776,10 +7737,10 @@
         <v>1340</v>
       </c>
       <c r="G80" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="H80" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7802,10 +7763,10 @@
         <v>1338</v>
       </c>
       <c r="G81" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="H81" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7825,13 +7786,13 @@
         <v>1276</v>
       </c>
       <c r="F82" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G82" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="H82" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7854,10 +7815,10 @@
         <v>1338</v>
       </c>
       <c r="G83" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="H83" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7877,13 +7838,13 @@
         <v>1296</v>
       </c>
       <c r="F84" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G84" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="H84" t="s">
-        <v>1755</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7909,7 +7870,7 @@
         <v>937</v>
       </c>
       <c r="H85" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7935,7 +7896,7 @@
         <v>1004</v>
       </c>
       <c r="H86" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7958,10 +7919,10 @@
         <v>1338</v>
       </c>
       <c r="G87" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="H87" t="s">
-        <v>1757</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -7984,10 +7945,10 @@
         <v>1277</v>
       </c>
       <c r="G88" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="H88" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8010,10 +7971,10 @@
         <v>1340</v>
       </c>
       <c r="G89" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="H89" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8036,10 +7997,10 @@
         <v>1351</v>
       </c>
       <c r="G90" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="H90" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8062,10 +8023,10 @@
         <v>1277</v>
       </c>
       <c r="G91" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="H91" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8091,7 +8052,7 @@
         <v>972</v>
       </c>
       <c r="H92" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8111,13 +8072,13 @@
         <v>1285</v>
       </c>
       <c r="F93" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G93" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="H93" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8140,10 +8101,10 @@
         <v>1349</v>
       </c>
       <c r="G94" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="H94" t="s">
-        <v>1758</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8163,13 +8124,13 @@
         <v>1276</v>
       </c>
       <c r="F95" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G95" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="H95" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8192,10 +8153,10 @@
         <v>1357</v>
       </c>
       <c r="G96" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="H96" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8215,13 +8176,13 @@
         <v>1299</v>
       </c>
       <c r="F97" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G97" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="H97" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8244,10 +8205,10 @@
         <v>1277</v>
       </c>
       <c r="G98" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="H98" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8270,10 +8231,10 @@
         <v>1277</v>
       </c>
       <c r="G99" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H99" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8296,10 +8257,10 @@
         <v>1351</v>
       </c>
       <c r="G100" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="H100" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8322,10 +8283,10 @@
         <v>1277</v>
       </c>
       <c r="G101" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="H101" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8345,13 +8306,13 @@
         <v>1278</v>
       </c>
       <c r="F102" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G102" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="H102" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8374,10 +8335,10 @@
         <v>1277</v>
       </c>
       <c r="G103" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="H103" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8400,10 +8361,10 @@
         <v>1346</v>
       </c>
       <c r="G104" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="H104" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8426,10 +8387,10 @@
         <v>1340</v>
       </c>
       <c r="G105" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="H105" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8455,7 +8416,7 @@
         <v>972</v>
       </c>
       <c r="H106" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8478,10 +8439,10 @@
         <v>1338</v>
       </c>
       <c r="G107" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="H107" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8507,7 +8468,7 @@
         <v>935</v>
       </c>
       <c r="H108" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8527,13 +8488,13 @@
         <v>1285</v>
       </c>
       <c r="F109" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G109" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="H109" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8553,13 +8514,13 @@
         <v>1275</v>
       </c>
       <c r="F110" t="s">
-        <v>1373</v>
+        <v>1354</v>
       </c>
       <c r="G110" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
       <c r="H110" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8582,10 +8543,10 @@
         <v>1348</v>
       </c>
       <c r="G111" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="H111" t="s">
-        <v>1759</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8608,10 +8569,10 @@
         <v>1284</v>
       </c>
       <c r="G112" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="H112" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8634,10 +8595,10 @@
         <v>1284</v>
       </c>
       <c r="G113" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="H113" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8660,10 +8621,10 @@
         <v>1338</v>
       </c>
       <c r="G114" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="H114" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8686,10 +8647,10 @@
         <v>1284</v>
       </c>
       <c r="G115" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H115" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8709,13 +8670,13 @@
         <v>1284</v>
       </c>
       <c r="F116" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G116" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="H116" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8741,7 +8702,7 @@
         <v>952</v>
       </c>
       <c r="H117" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8761,13 +8722,13 @@
         <v>1295</v>
       </c>
       <c r="F118" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="G118" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="H118" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8790,10 +8751,10 @@
         <v>1358</v>
       </c>
       <c r="G119" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="H119" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8816,10 +8777,10 @@
         <v>1349</v>
       </c>
       <c r="G120" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="H120" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8839,13 +8800,13 @@
         <v>1295</v>
       </c>
       <c r="F121" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="G121" t="s">
-        <v>1536</v>
+        <v>1532</v>
       </c>
       <c r="H121" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8868,10 +8829,10 @@
         <v>1349</v>
       </c>
       <c r="G122" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="H122" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8897,7 +8858,7 @@
         <v>972</v>
       </c>
       <c r="H123" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8923,7 +8884,7 @@
         <v>952</v>
       </c>
       <c r="H124" t="s">
-        <v>1753</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8949,7 +8910,7 @@
         <v>935</v>
       </c>
       <c r="H125" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8975,7 +8936,7 @@
         <v>937</v>
       </c>
       <c r="H126" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -8998,10 +8959,10 @@
         <v>1338</v>
       </c>
       <c r="G127" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="H127" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9024,10 +8985,10 @@
         <v>1352</v>
       </c>
       <c r="G128" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="H128" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9053,7 +9014,7 @@
         <v>1004</v>
       </c>
       <c r="H129" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9076,10 +9037,10 @@
         <v>1277</v>
       </c>
       <c r="G130" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="H130" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9099,13 +9060,13 @@
         <v>1275</v>
       </c>
       <c r="F131" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G131" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="H131" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9128,10 +9089,10 @@
         <v>1349</v>
       </c>
       <c r="G132" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="H132" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9154,10 +9115,10 @@
         <v>1349</v>
       </c>
       <c r="G133" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="H133" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9180,10 +9141,10 @@
         <v>1340</v>
       </c>
       <c r="G134" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="H134" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9203,13 +9164,13 @@
         <v>1275</v>
       </c>
       <c r="F135" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="G135" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="H135" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9229,13 +9190,13 @@
         <v>1275</v>
       </c>
       <c r="F136" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="G136" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="H136" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9258,10 +9219,10 @@
         <v>1358</v>
       </c>
       <c r="G137" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="H137" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9281,13 +9242,13 @@
         <v>1297</v>
       </c>
       <c r="F138" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G138" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="H138" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9307,13 +9268,13 @@
         <v>1297</v>
       </c>
       <c r="F139" t="s">
-        <v>1374</v>
+        <v>1284</v>
       </c>
       <c r="G139" t="s">
-        <v>1548</v>
+        <v>1069</v>
       </c>
       <c r="H139" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9336,10 +9297,10 @@
         <v>1338</v>
       </c>
       <c r="G140" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="H140" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9365,7 +9326,7 @@
         <v>972</v>
       </c>
       <c r="H141" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9388,10 +9349,10 @@
         <v>1349</v>
       </c>
       <c r="G142" t="s">
-        <v>1549</v>
+        <v>1544</v>
       </c>
       <c r="H142" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9414,10 +9375,10 @@
         <v>1340</v>
       </c>
       <c r="G143" t="s">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="H143" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9440,10 +9401,10 @@
         <v>1357</v>
       </c>
       <c r="G144" t="s">
-        <v>1551</v>
+        <v>1546</v>
       </c>
       <c r="H144" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9466,10 +9427,10 @@
         <v>1338</v>
       </c>
       <c r="G145" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="H145" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9495,7 +9456,7 @@
         <v>1054</v>
       </c>
       <c r="H146" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9515,13 +9476,13 @@
         <v>1277</v>
       </c>
       <c r="F147" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="G147" t="s">
-        <v>1552</v>
+        <v>1547</v>
       </c>
       <c r="H147" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9541,13 +9502,13 @@
         <v>1283</v>
       </c>
       <c r="F148" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
       <c r="G148" t="s">
-        <v>1553</v>
+        <v>1464</v>
       </c>
       <c r="H148" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9570,10 +9531,10 @@
         <v>1277</v>
       </c>
       <c r="G149" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="H149" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9599,7 +9560,7 @@
         <v>993</v>
       </c>
       <c r="H150" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9619,13 +9580,13 @@
         <v>1301</v>
       </c>
       <c r="F151" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="G151" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="H151" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9651,7 +9612,7 @@
         <v>935</v>
       </c>
       <c r="H152" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9674,10 +9635,10 @@
         <v>1277</v>
       </c>
       <c r="G153" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="H153" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9700,10 +9661,10 @@
         <v>1358</v>
       </c>
       <c r="G154" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="H154" t="s">
-        <v>1760</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9723,13 +9684,13 @@
         <v>1275</v>
       </c>
       <c r="F155" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="G155" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="H155" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9755,7 +9716,7 @@
         <v>1000</v>
       </c>
       <c r="H156" t="s">
-        <v>1761</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9778,10 +9739,10 @@
         <v>1277</v>
       </c>
       <c r="G157" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="H157" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9801,13 +9762,13 @@
         <v>1303</v>
       </c>
       <c r="F158" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="G158" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="H158" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9827,13 +9788,13 @@
         <v>1277</v>
       </c>
       <c r="F159" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G159" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="H159" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9853,13 +9814,13 @@
         <v>1277</v>
       </c>
       <c r="F160" t="s">
-        <v>1383</v>
+        <v>1284</v>
       </c>
       <c r="G160" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="H160" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9882,10 +9843,10 @@
         <v>1338</v>
       </c>
       <c r="G161" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="H161" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9908,10 +9869,10 @@
         <v>1277</v>
       </c>
       <c r="G162" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="H162" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9934,10 +9895,10 @@
         <v>1277</v>
       </c>
       <c r="G163" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="H163" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9957,13 +9918,13 @@
         <v>1284</v>
       </c>
       <c r="F164" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G164" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="H164" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9983,13 +9944,13 @@
         <v>1284</v>
       </c>
       <c r="F165" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="G165" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="H165" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10015,7 +9976,7 @@
         <v>1066</v>
       </c>
       <c r="H166" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10038,10 +9999,10 @@
         <v>1340</v>
       </c>
       <c r="G167" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="H167" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10067,7 +10028,7 @@
         <v>980</v>
       </c>
       <c r="H168" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10090,10 +10051,10 @@
         <v>1349</v>
       </c>
       <c r="G169" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="H169" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10113,13 +10074,13 @@
         <v>1285</v>
       </c>
       <c r="F170" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="G170" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="H170" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10142,10 +10103,10 @@
         <v>1277</v>
       </c>
       <c r="G171" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="H171" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10168,10 +10129,10 @@
         <v>1338</v>
       </c>
       <c r="G172" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="H172" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10191,13 +10152,13 @@
         <v>1304</v>
       </c>
       <c r="F173" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="G173" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="H173" t="s">
-        <v>1753</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10217,13 +10178,13 @@
         <v>1299</v>
       </c>
       <c r="F174" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G174" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="H174" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10243,13 +10204,13 @@
         <v>1305</v>
       </c>
       <c r="F175" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="G175" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="H175" t="s">
-        <v>1753</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10272,10 +10233,10 @@
         <v>1277</v>
       </c>
       <c r="G176" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="H176" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10298,10 +10259,10 @@
         <v>1277</v>
       </c>
       <c r="G177" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="H177" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10321,13 +10282,13 @@
         <v>1295</v>
       </c>
       <c r="F178" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G178" t="s">
-        <v>1574</v>
+        <v>1548</v>
       </c>
       <c r="H178" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10350,10 +10311,10 @@
         <v>1277</v>
       </c>
       <c r="G179" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="H179" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10373,13 +10334,13 @@
         <v>1306</v>
       </c>
       <c r="F180" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="G180" t="s">
-        <v>1575</v>
+        <v>1568</v>
       </c>
       <c r="H180" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10399,13 +10360,13 @@
         <v>1275</v>
       </c>
       <c r="F181" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G181" t="s">
-        <v>1576</v>
+        <v>1569</v>
       </c>
       <c r="H181" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10425,13 +10386,13 @@
         <v>1283</v>
       </c>
       <c r="F182" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="G182" t="s">
-        <v>1577</v>
+        <v>1570</v>
       </c>
       <c r="H182" t="s">
-        <v>1751</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10451,13 +10412,13 @@
         <v>1307</v>
       </c>
       <c r="F183" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="G183" t="s">
-        <v>1578</v>
+        <v>1571</v>
       </c>
       <c r="H183" t="s">
-        <v>1762</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10477,13 +10438,13 @@
         <v>1308</v>
       </c>
       <c r="F184" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="G184" t="s">
-        <v>1579</v>
+        <v>1572</v>
       </c>
       <c r="H184" t="s">
-        <v>1753</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10503,13 +10464,13 @@
         <v>1292</v>
       </c>
       <c r="F185" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="G185" t="s">
-        <v>1580</v>
+        <v>1573</v>
       </c>
       <c r="H185" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10532,10 +10493,10 @@
         <v>1340</v>
       </c>
       <c r="G186" t="s">
-        <v>1581</v>
+        <v>1574</v>
       </c>
       <c r="H186" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10561,7 +10522,7 @@
         <v>993</v>
       </c>
       <c r="H187" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10584,10 +10545,10 @@
         <v>1277</v>
       </c>
       <c r="G188" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="H188" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10610,10 +10571,10 @@
         <v>1277</v>
       </c>
       <c r="G189" t="s">
-        <v>1582</v>
+        <v>1575</v>
       </c>
       <c r="H189" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10633,13 +10594,13 @@
         <v>1309</v>
       </c>
       <c r="F190" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="G190" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="H190" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10659,13 +10620,13 @@
         <v>1284</v>
       </c>
       <c r="F191" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G191" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="H191" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10688,10 +10649,10 @@
         <v>1338</v>
       </c>
       <c r="G192" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="H192" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10717,7 +10678,7 @@
         <v>993</v>
       </c>
       <c r="H193" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10737,13 +10698,13 @@
         <v>1299</v>
       </c>
       <c r="F194" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="G194" t="s">
-        <v>1584</v>
+        <v>1577</v>
       </c>
       <c r="H194" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10769,7 +10730,7 @@
         <v>937</v>
       </c>
       <c r="H195" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10792,10 +10753,10 @@
         <v>1338</v>
       </c>
       <c r="G196" t="s">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="H196" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10815,13 +10776,13 @@
         <v>1310</v>
       </c>
       <c r="F197" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G197" t="s">
-        <v>1586</v>
+        <v>1579</v>
       </c>
       <c r="H197" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10841,13 +10802,13 @@
         <v>1283</v>
       </c>
       <c r="F198" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="G198" t="s">
-        <v>1587</v>
+        <v>1580</v>
       </c>
       <c r="H198" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10870,10 +10831,10 @@
         <v>1338</v>
       </c>
       <c r="G199" t="s">
-        <v>1588</v>
+        <v>1581</v>
       </c>
       <c r="H199" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10899,7 +10860,7 @@
         <v>972</v>
       </c>
       <c r="H200" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10919,13 +10880,13 @@
         <v>1284</v>
       </c>
       <c r="F201" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G201" t="s">
-        <v>1589</v>
+        <v>1582</v>
       </c>
       <c r="H201" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10951,7 +10912,7 @@
         <v>1000</v>
       </c>
       <c r="H202" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10974,10 +10935,10 @@
         <v>1284</v>
       </c>
       <c r="G203" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="H203" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11003,7 +10964,7 @@
         <v>1004</v>
       </c>
       <c r="H204" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11023,13 +10984,13 @@
         <v>1277</v>
       </c>
       <c r="F205" t="s">
-        <v>1361</v>
+        <v>1337</v>
       </c>
       <c r="G205" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="H205" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11049,13 +11010,13 @@
         <v>1284</v>
       </c>
       <c r="F206" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G206" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
       <c r="H206" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11075,13 +11036,13 @@
         <v>1308</v>
       </c>
       <c r="F207" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="G207" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
       <c r="H207" t="s">
-        <v>1753</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11107,7 +11068,7 @@
         <v>1093</v>
       </c>
       <c r="H208" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11127,13 +11088,13 @@
         <v>1311</v>
       </c>
       <c r="F209" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="G209" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="H209" t="s">
-        <v>1759</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11156,10 +11117,10 @@
         <v>1277</v>
       </c>
       <c r="G210" t="s">
-        <v>1594</v>
+        <v>1587</v>
       </c>
       <c r="H210" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11179,13 +11140,13 @@
         <v>1275</v>
       </c>
       <c r="F211" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="G211" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
       <c r="H211" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11211,7 +11172,7 @@
         <v>952</v>
       </c>
       <c r="H212" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11234,10 +11195,10 @@
         <v>1338</v>
       </c>
       <c r="G213" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="H213" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11263,7 +11224,7 @@
         <v>1050</v>
       </c>
       <c r="H214" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11286,10 +11247,10 @@
         <v>1277</v>
       </c>
       <c r="G215" t="s">
-        <v>1597</v>
+        <v>1590</v>
       </c>
       <c r="H215" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11309,13 +11270,13 @@
         <v>1310</v>
       </c>
       <c r="F216" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="G216" t="s">
-        <v>1598</v>
+        <v>1591</v>
       </c>
       <c r="H216" t="s">
-        <v>1763</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11335,13 +11296,13 @@
         <v>1277</v>
       </c>
       <c r="F217" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
       <c r="G217" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="H217" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11364,10 +11325,10 @@
         <v>1284</v>
       </c>
       <c r="G218" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="H218" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11387,13 +11348,13 @@
         <v>1295</v>
       </c>
       <c r="F219" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G219" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="H219" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11416,10 +11377,10 @@
         <v>1349</v>
       </c>
       <c r="G220" t="s">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="H220" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11439,13 +11400,13 @@
         <v>1310</v>
       </c>
       <c r="F221" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="G221" t="s">
-        <v>1602</v>
+        <v>1595</v>
       </c>
       <c r="H221" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11468,10 +11429,10 @@
         <v>1284</v>
       </c>
       <c r="G222" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="H222" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11491,13 +11452,13 @@
         <v>1309</v>
       </c>
       <c r="F223" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="G223" t="s">
-        <v>1603</v>
+        <v>1596</v>
       </c>
       <c r="H223" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11523,7 +11484,7 @@
         <v>952</v>
       </c>
       <c r="H224" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11546,10 +11507,10 @@
         <v>1347</v>
       </c>
       <c r="G225" t="s">
-        <v>1604</v>
+        <v>1597</v>
       </c>
       <c r="H225" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11569,13 +11530,13 @@
         <v>1310</v>
       </c>
       <c r="F226" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G226" t="s">
-        <v>1605</v>
+        <v>1598</v>
       </c>
       <c r="H226" t="s">
-        <v>1764</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11595,13 +11556,13 @@
         <v>1313</v>
       </c>
       <c r="F227" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="G227" t="s">
-        <v>1606</v>
+        <v>1599</v>
       </c>
       <c r="H227" t="s">
-        <v>1765</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11621,13 +11582,13 @@
         <v>1284</v>
       </c>
       <c r="F228" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="G228" t="s">
-        <v>1607</v>
+        <v>1600</v>
       </c>
       <c r="H228" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11653,7 +11614,7 @@
         <v>1093</v>
       </c>
       <c r="H229" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11679,7 +11640,7 @@
         <v>935</v>
       </c>
       <c r="H230" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11705,7 +11666,7 @@
         <v>1093</v>
       </c>
       <c r="H231" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11725,13 +11686,13 @@
         <v>1284</v>
       </c>
       <c r="F232" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G232" t="s">
-        <v>1608</v>
+        <v>1601</v>
       </c>
       <c r="H232" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11751,13 +11712,13 @@
         <v>1275</v>
       </c>
       <c r="F233" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G233" t="s">
-        <v>1609</v>
+        <v>1602</v>
       </c>
       <c r="H233" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11780,10 +11741,10 @@
         <v>1293</v>
       </c>
       <c r="G234" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="H234" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11809,7 +11770,7 @@
         <v>952</v>
       </c>
       <c r="H235" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11832,10 +11793,10 @@
         <v>1293</v>
       </c>
       <c r="G236" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="H236" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11858,10 +11819,10 @@
         <v>1293</v>
       </c>
       <c r="G237" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="H237" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11881,13 +11842,13 @@
         <v>1284</v>
       </c>
       <c r="F238" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G238" t="s">
-        <v>1611</v>
+        <v>1604</v>
       </c>
       <c r="H238" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11910,10 +11871,10 @@
         <v>1343</v>
       </c>
       <c r="G239" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
       <c r="H239" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11936,10 +11897,10 @@
         <v>1344</v>
       </c>
       <c r="G240" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="H240" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11965,7 +11926,7 @@
         <v>935</v>
       </c>
       <c r="H241" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -11985,13 +11946,13 @@
         <v>1315</v>
       </c>
       <c r="F242" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G242" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="H242" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12017,7 +11978,7 @@
         <v>952</v>
       </c>
       <c r="H243" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12043,7 +12004,7 @@
         <v>972</v>
       </c>
       <c r="H244" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12063,13 +12024,13 @@
         <v>1316</v>
       </c>
       <c r="F245" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G245" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="H245" t="s">
-        <v>1753</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12089,13 +12050,13 @@
         <v>1284</v>
       </c>
       <c r="F246" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G246" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="H246" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12115,13 +12076,13 @@
         <v>1317</v>
       </c>
       <c r="F247" t="s">
-        <v>1380</v>
+        <v>1351</v>
       </c>
       <c r="G247" t="s">
-        <v>1553</v>
+        <v>1464</v>
       </c>
       <c r="H247" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12141,13 +12102,13 @@
         <v>1275</v>
       </c>
       <c r="F248" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="G248" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="H248" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12167,13 +12128,13 @@
         <v>1275</v>
       </c>
       <c r="F249" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="G249" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
       <c r="H249" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12193,13 +12154,13 @@
         <v>1275</v>
       </c>
       <c r="F250" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G250" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="H250" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12225,7 +12186,7 @@
         <v>935</v>
       </c>
       <c r="H251" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12251,7 +12212,7 @@
         <v>989</v>
       </c>
       <c r="H252" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12277,7 +12238,7 @@
         <v>989</v>
       </c>
       <c r="H253" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12297,13 +12258,13 @@
         <v>1304</v>
       </c>
       <c r="F254" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="G254" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="H254" t="s">
-        <v>1747</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12326,10 +12287,10 @@
         <v>1277</v>
       </c>
       <c r="G255" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="H255" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12352,10 +12313,10 @@
         <v>1343</v>
       </c>
       <c r="G256" t="s">
-        <v>1622</v>
+        <v>1615</v>
       </c>
       <c r="H256" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12375,13 +12336,13 @@
         <v>1275</v>
       </c>
       <c r="F257" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G257" t="s">
-        <v>1623</v>
+        <v>1616</v>
       </c>
       <c r="H257" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12401,13 +12362,13 @@
         <v>1275</v>
       </c>
       <c r="F258" t="s">
-        <v>1363</v>
+        <v>1275</v>
       </c>
       <c r="G258" t="s">
-        <v>1624</v>
+        <v>952</v>
       </c>
       <c r="H258" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12433,7 +12394,7 @@
         <v>952</v>
       </c>
       <c r="H259" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12453,13 +12414,13 @@
         <v>1275</v>
       </c>
       <c r="F260" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G260" t="s">
-        <v>1625</v>
+        <v>972</v>
       </c>
       <c r="H260" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12482,10 +12443,10 @@
         <v>1293</v>
       </c>
       <c r="G261" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="H261" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12508,10 +12469,10 @@
         <v>1352</v>
       </c>
       <c r="G262" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="H262" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12534,10 +12495,10 @@
         <v>1277</v>
       </c>
       <c r="G263" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="H263" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12563,7 +12524,7 @@
         <v>1069</v>
       </c>
       <c r="H264" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12586,10 +12547,10 @@
         <v>1293</v>
       </c>
       <c r="G265" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="H265" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12609,13 +12570,13 @@
         <v>1284</v>
       </c>
       <c r="F266" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="G266" t="s">
-        <v>1626</v>
+        <v>1617</v>
       </c>
       <c r="H266" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12641,7 +12602,7 @@
         <v>972</v>
       </c>
       <c r="H267" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12661,13 +12622,13 @@
         <v>1299</v>
       </c>
       <c r="F268" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G268" t="s">
-        <v>1627</v>
+        <v>1618</v>
       </c>
       <c r="H268" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12690,10 +12651,10 @@
         <v>1336</v>
       </c>
       <c r="G269" t="s">
-        <v>1628</v>
+        <v>1619</v>
       </c>
       <c r="H269" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12713,13 +12674,13 @@
         <v>1310</v>
       </c>
       <c r="F270" t="s">
-        <v>1388</v>
+        <v>1406</v>
       </c>
       <c r="G270" t="s">
-        <v>1629</v>
+        <v>1620</v>
       </c>
       <c r="H270" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12739,13 +12700,13 @@
         <v>1293</v>
       </c>
       <c r="F271" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G271" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="H271" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12768,10 +12729,10 @@
         <v>1407</v>
       </c>
       <c r="G272" t="s">
-        <v>1631</v>
+        <v>1622</v>
       </c>
       <c r="H272" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12791,13 +12752,13 @@
         <v>1285</v>
       </c>
       <c r="F273" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G273" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
       <c r="H273" t="s">
-        <v>1752</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12817,13 +12778,13 @@
         <v>1275</v>
       </c>
       <c r="F274" t="s">
-        <v>1373</v>
+        <v>1354</v>
       </c>
       <c r="G274" t="s">
-        <v>1633</v>
+        <v>1624</v>
       </c>
       <c r="H274" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12849,7 +12810,7 @@
         <v>989</v>
       </c>
       <c r="H275" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12869,13 +12830,13 @@
         <v>1303</v>
       </c>
       <c r="F276" t="s">
-        <v>1408</v>
+        <v>1385</v>
       </c>
       <c r="G276" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
       <c r="H276" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12898,10 +12859,10 @@
         <v>1277</v>
       </c>
       <c r="G277" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="H277" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12921,13 +12882,13 @@
         <v>1278</v>
       </c>
       <c r="F278" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G278" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="H278" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12947,13 +12908,13 @@
         <v>1284</v>
       </c>
       <c r="F279" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="G279" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="H279" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12973,13 +12934,13 @@
         <v>1318</v>
       </c>
       <c r="F280" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="G280" t="s">
-        <v>1636</v>
+        <v>1627</v>
       </c>
       <c r="H280" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -12999,13 +12960,13 @@
         <v>1275</v>
       </c>
       <c r="F281" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="G281" t="s">
-        <v>1637</v>
+        <v>1628</v>
       </c>
       <c r="H281" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13028,10 +12989,10 @@
         <v>1284</v>
       </c>
       <c r="G282" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="H282" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13054,10 +13015,10 @@
         <v>1347</v>
       </c>
       <c r="G283" t="s">
-        <v>1638</v>
+        <v>1629</v>
       </c>
       <c r="H283" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13077,13 +13038,13 @@
         <v>1275</v>
       </c>
       <c r="F284" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="G284" t="s">
-        <v>1639</v>
+        <v>1630</v>
       </c>
       <c r="H284" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13109,7 +13070,7 @@
         <v>1228</v>
       </c>
       <c r="H285" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13135,7 +13096,7 @@
         <v>989</v>
       </c>
       <c r="H286" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13155,13 +13116,13 @@
         <v>1275</v>
       </c>
       <c r="F287" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="G287" t="s">
-        <v>1640</v>
+        <v>1631</v>
       </c>
       <c r="H287" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13187,7 +13148,7 @@
         <v>1119</v>
       </c>
       <c r="H288" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13213,7 +13174,7 @@
         <v>952</v>
       </c>
       <c r="H289" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13233,13 +13194,13 @@
         <v>1319</v>
       </c>
       <c r="F290" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="G290" t="s">
-        <v>1641</v>
+        <v>1632</v>
       </c>
       <c r="H290" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13259,13 +13220,13 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1373</v>
+        <v>1354</v>
       </c>
       <c r="G291" t="s">
-        <v>1642</v>
+        <v>1633</v>
       </c>
       <c r="H291" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13285,13 +13246,13 @@
         <v>1275</v>
       </c>
       <c r="F292" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="G292" t="s">
-        <v>1643</v>
+        <v>1634</v>
       </c>
       <c r="H292" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13311,13 +13272,13 @@
         <v>1278</v>
       </c>
       <c r="F293" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G293" t="s">
-        <v>1644</v>
+        <v>1635</v>
       </c>
       <c r="H293" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13337,13 +13298,13 @@
         <v>1275</v>
       </c>
       <c r="F294" t="s">
-        <v>1338</v>
+        <v>1277</v>
       </c>
       <c r="G294" t="s">
-        <v>1645</v>
+        <v>1515</v>
       </c>
       <c r="H294" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13366,10 +13327,10 @@
         <v>1277</v>
       </c>
       <c r="G295" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="H295" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13392,10 +13353,10 @@
         <v>1348</v>
       </c>
       <c r="G296" t="s">
-        <v>1646</v>
+        <v>1636</v>
       </c>
       <c r="H296" t="s">
-        <v>1752</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13415,13 +13376,13 @@
         <v>1275</v>
       </c>
       <c r="F297" t="s">
-        <v>1403</v>
+        <v>1347</v>
       </c>
       <c r="G297" t="s">
-        <v>1647</v>
+        <v>1637</v>
       </c>
       <c r="H297" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13441,13 +13402,13 @@
         <v>1275</v>
       </c>
       <c r="F298" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="G298" t="s">
-        <v>1648</v>
+        <v>1638</v>
       </c>
       <c r="H298" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13470,10 +13431,10 @@
         <v>1284</v>
       </c>
       <c r="G299" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="H299" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13493,13 +13454,13 @@
         <v>1284</v>
       </c>
       <c r="F300" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G300" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="H300" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13525,7 +13486,7 @@
         <v>952</v>
       </c>
       <c r="H301" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13545,13 +13506,13 @@
         <v>1275</v>
       </c>
       <c r="F302" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G302" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="H302" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13574,10 +13535,10 @@
         <v>1344</v>
       </c>
       <c r="G303" t="s">
-        <v>1650</v>
+        <v>1640</v>
       </c>
       <c r="H303" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13597,13 +13558,13 @@
         <v>1293</v>
       </c>
       <c r="F304" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G304" t="s">
-        <v>1651</v>
+        <v>1641</v>
       </c>
       <c r="H304" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13626,10 +13587,10 @@
         <v>1347</v>
       </c>
       <c r="G305" t="s">
-        <v>1652</v>
+        <v>1642</v>
       </c>
       <c r="H305" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13652,10 +13613,10 @@
         <v>1351</v>
       </c>
       <c r="G306" t="s">
-        <v>1653</v>
+        <v>1643</v>
       </c>
       <c r="H306" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13678,10 +13639,10 @@
         <v>1340</v>
       </c>
       <c r="G307" t="s">
-        <v>1654</v>
+        <v>1644</v>
       </c>
       <c r="H307" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13701,13 +13662,13 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="G308" t="s">
-        <v>1655</v>
+        <v>1645</v>
       </c>
       <c r="H308" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13733,7 +13694,7 @@
         <v>989</v>
       </c>
       <c r="H309" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13759,7 +13720,7 @@
         <v>1004</v>
       </c>
       <c r="H310" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13785,7 +13746,7 @@
         <v>937</v>
       </c>
       <c r="H311" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13808,10 +13769,10 @@
         <v>1347</v>
       </c>
       <c r="G312" t="s">
-        <v>1656</v>
+        <v>1637</v>
       </c>
       <c r="H312" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13837,7 +13798,7 @@
         <v>952</v>
       </c>
       <c r="H313" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13860,10 +13821,10 @@
         <v>1293</v>
       </c>
       <c r="G314" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="H314" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13889,7 +13850,7 @@
         <v>1093</v>
       </c>
       <c r="H315" t="s">
-        <v>1745</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13915,7 +13876,7 @@
         <v>1093</v>
       </c>
       <c r="H316" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13941,7 +13902,7 @@
         <v>972</v>
       </c>
       <c r="H317" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13961,13 +13922,13 @@
         <v>1284</v>
       </c>
       <c r="F318" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G318" t="s">
-        <v>1657</v>
+        <v>1646</v>
       </c>
       <c r="H318" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -13993,7 +13954,7 @@
         <v>952</v>
       </c>
       <c r="H319" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14019,7 +13980,7 @@
         <v>952</v>
       </c>
       <c r="H320" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14039,13 +14000,13 @@
         <v>1293</v>
       </c>
       <c r="F321" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G321" t="s">
-        <v>1658</v>
+        <v>1647</v>
       </c>
       <c r="H321" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14065,13 +14026,13 @@
         <v>1275</v>
       </c>
       <c r="F322" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="G322" t="s">
-        <v>1659</v>
+        <v>1648</v>
       </c>
       <c r="H322" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14094,10 +14055,10 @@
         <v>1351</v>
       </c>
       <c r="G323" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="H323" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14120,10 +14081,10 @@
         <v>1338</v>
       </c>
       <c r="G324" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="H324" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14142,14 +14103,8 @@
       <c r="E325" t="s">
         <v>1284</v>
       </c>
-      <c r="F325" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G325" t="s">
-        <v>1175</v>
-      </c>
       <c r="H325" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14169,13 +14124,13 @@
         <v>1284</v>
       </c>
       <c r="F326" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G326" t="s">
-        <v>1660</v>
+        <v>1649</v>
       </c>
       <c r="H326" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14195,13 +14150,13 @@
         <v>1314</v>
       </c>
       <c r="F327" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G327" t="s">
-        <v>1661</v>
+        <v>1650</v>
       </c>
       <c r="H327" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14224,10 +14179,10 @@
         <v>1352</v>
       </c>
       <c r="G328" t="s">
-        <v>1662</v>
+        <v>1651</v>
       </c>
       <c r="H328" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14250,10 +14205,10 @@
         <v>1347</v>
       </c>
       <c r="G329" t="s">
-        <v>1663</v>
+        <v>1652</v>
       </c>
       <c r="H329" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14276,10 +14231,10 @@
         <v>1352</v>
       </c>
       <c r="G330" t="s">
-        <v>1664</v>
+        <v>1653</v>
       </c>
       <c r="H330" t="s">
-        <v>1751</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14305,7 +14260,7 @@
         <v>952</v>
       </c>
       <c r="H331" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14331,7 +14286,7 @@
         <v>1093</v>
       </c>
       <c r="H332" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14354,10 +14309,10 @@
         <v>1347</v>
       </c>
       <c r="G333" t="s">
-        <v>1656</v>
+        <v>1637</v>
       </c>
       <c r="H333" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14377,13 +14332,13 @@
         <v>1284</v>
       </c>
       <c r="F334" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G334" t="s">
-        <v>1665</v>
+        <v>1654</v>
       </c>
       <c r="H334" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14403,13 +14358,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G335" t="s">
-        <v>1666</v>
+        <v>1655</v>
       </c>
       <c r="H335" t="s">
-        <v>1766</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14432,10 +14387,10 @@
         <v>1277</v>
       </c>
       <c r="G336" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="H336" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14455,13 +14410,13 @@
         <v>1296</v>
       </c>
       <c r="F337" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="G337" t="s">
-        <v>1667</v>
+        <v>1656</v>
       </c>
       <c r="H337" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14484,10 +14439,10 @@
         <v>1284</v>
       </c>
       <c r="G338" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="H338" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14507,13 +14462,13 @@
         <v>1275</v>
       </c>
       <c r="F339" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G339" t="s">
-        <v>1668</v>
+        <v>1657</v>
       </c>
       <c r="H339" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14539,7 +14494,7 @@
         <v>1184</v>
       </c>
       <c r="H340" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14559,13 +14514,13 @@
         <v>1321</v>
       </c>
       <c r="F341" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="G341" t="s">
-        <v>1669</v>
+        <v>1658</v>
       </c>
       <c r="H341" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14585,13 +14540,13 @@
         <v>1310</v>
       </c>
       <c r="F342" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="G342" t="s">
-        <v>1670</v>
+        <v>1659</v>
       </c>
       <c r="H342" t="s">
-        <v>1745</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14611,13 +14566,13 @@
         <v>1310</v>
       </c>
       <c r="F343" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G343" t="s">
-        <v>1671</v>
+        <v>1660</v>
       </c>
       <c r="H343" t="s">
-        <v>1751</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14637,13 +14592,13 @@
         <v>1296</v>
       </c>
       <c r="F344" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="G344" t="s">
-        <v>1672</v>
+        <v>1661</v>
       </c>
       <c r="H344" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14663,13 +14618,13 @@
         <v>1275</v>
       </c>
       <c r="F345" t="s">
-        <v>1366</v>
+        <v>1389</v>
       </c>
       <c r="G345" t="s">
-        <v>1673</v>
+        <v>1662</v>
       </c>
       <c r="H345" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14692,10 +14647,10 @@
         <v>1293</v>
       </c>
       <c r="G346" t="s">
-        <v>1674</v>
+        <v>1663</v>
       </c>
       <c r="H346" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14715,13 +14670,13 @@
         <v>1316</v>
       </c>
       <c r="F347" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G347" t="s">
-        <v>1675</v>
+        <v>1664</v>
       </c>
       <c r="H347" t="s">
-        <v>1767</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14741,13 +14696,13 @@
         <v>1275</v>
       </c>
       <c r="F348" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="G348" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="H348" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14767,13 +14722,13 @@
         <v>1299</v>
       </c>
       <c r="F349" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="G349" t="s">
-        <v>1676</v>
+        <v>1665</v>
       </c>
       <c r="H349" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14793,13 +14748,13 @@
         <v>1323</v>
       </c>
       <c r="F350" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="G350" t="s">
-        <v>1677</v>
+        <v>1666</v>
       </c>
       <c r="H350" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14822,10 +14777,10 @@
         <v>1340</v>
       </c>
       <c r="G351" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
       <c r="H351" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14845,13 +14800,13 @@
         <v>1299</v>
       </c>
       <c r="F352" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="G352" t="s">
-        <v>1678</v>
+        <v>1667</v>
       </c>
       <c r="H352" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14877,7 +14832,7 @@
         <v>952</v>
       </c>
       <c r="H353" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14903,7 +14858,7 @@
         <v>989</v>
       </c>
       <c r="H354" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14929,7 +14884,7 @@
         <v>1093</v>
       </c>
       <c r="H355" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14949,13 +14904,13 @@
         <v>1275</v>
       </c>
       <c r="F356" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="G356" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="H356" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14975,13 +14930,13 @@
         <v>1278</v>
       </c>
       <c r="F357" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="G357" t="s">
-        <v>1679</v>
+        <v>1668</v>
       </c>
       <c r="H357" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15001,13 +14956,13 @@
         <v>1321</v>
       </c>
       <c r="F358" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="G358" t="s">
-        <v>1680</v>
+        <v>1669</v>
       </c>
       <c r="H358" t="s">
-        <v>1755</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15033,7 +14988,7 @@
         <v>972</v>
       </c>
       <c r="H359" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15053,13 +15008,13 @@
         <v>1284</v>
       </c>
       <c r="F360" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G360" t="s">
-        <v>1681</v>
+        <v>1670</v>
       </c>
       <c r="H360" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15079,13 +15034,13 @@
         <v>1324</v>
       </c>
       <c r="F361" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G361" t="s">
-        <v>1682</v>
+        <v>1671</v>
       </c>
       <c r="H361" t="s">
-        <v>1768</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15105,13 +15060,13 @@
         <v>1297</v>
       </c>
       <c r="F362" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G362" t="s">
-        <v>1683</v>
+        <v>1672</v>
       </c>
       <c r="H362" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15137,7 +15092,7 @@
         <v>989</v>
       </c>
       <c r="H363" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15160,10 +15115,10 @@
         <v>1340</v>
       </c>
       <c r="G364" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="H364" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15186,10 +15141,10 @@
         <v>1277</v>
       </c>
       <c r="G365" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="H365" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15209,13 +15164,13 @@
         <v>1285</v>
       </c>
       <c r="F366" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G366" t="s">
-        <v>1684</v>
+        <v>1673</v>
       </c>
       <c r="H366" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15235,13 +15190,13 @@
         <v>1278</v>
       </c>
       <c r="F367" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="G367" t="s">
-        <v>1685</v>
+        <v>1674</v>
       </c>
       <c r="H367" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15261,13 +15216,13 @@
         <v>1278</v>
       </c>
       <c r="F368" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="G368" t="s">
-        <v>1686</v>
+        <v>1675</v>
       </c>
       <c r="H368" t="s">
-        <v>1769</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15287,13 +15242,13 @@
         <v>1293</v>
       </c>
       <c r="F369" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G369" t="s">
-        <v>1657</v>
+        <v>1646</v>
       </c>
       <c r="H369" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15319,7 +15274,7 @@
         <v>1119</v>
       </c>
       <c r="H370" t="s">
-        <v>1744</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15342,10 +15297,10 @@
         <v>1338</v>
       </c>
       <c r="G371" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="H371" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15365,13 +15320,13 @@
         <v>1297</v>
       </c>
       <c r="F372" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G372" t="s">
-        <v>1687</v>
+        <v>1676</v>
       </c>
       <c r="H372" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15391,13 +15346,13 @@
         <v>1321</v>
       </c>
       <c r="F373" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
       <c r="G373" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="H373" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15417,13 +15372,13 @@
         <v>1284</v>
       </c>
       <c r="F374" t="s">
-        <v>1427</v>
+        <v>1355</v>
       </c>
       <c r="G374" t="s">
-        <v>1688</v>
+        <v>1677</v>
       </c>
       <c r="H374" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15446,10 +15401,10 @@
         <v>1338</v>
       </c>
       <c r="G375" t="s">
-        <v>1689</v>
+        <v>1678</v>
       </c>
       <c r="H375" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15472,10 +15427,10 @@
         <v>1357</v>
       </c>
       <c r="G376" t="s">
-        <v>1690</v>
+        <v>1679</v>
       </c>
       <c r="H376" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15495,13 +15450,13 @@
         <v>1284</v>
       </c>
       <c r="F377" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="G377" t="s">
-        <v>1691</v>
+        <v>1680</v>
       </c>
       <c r="H377" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15521,7 +15476,7 @@
         <v>1284</v>
       </c>
       <c r="H378" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15547,7 +15502,7 @@
         <v>1119</v>
       </c>
       <c r="H379" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15567,13 +15522,13 @@
         <v>1278</v>
       </c>
       <c r="F380" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="G380" t="s">
-        <v>1692</v>
+        <v>1681</v>
       </c>
       <c r="H380" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15593,13 +15548,13 @@
         <v>1278</v>
       </c>
       <c r="F381" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="G381" t="s">
-        <v>1693</v>
+        <v>1682</v>
       </c>
       <c r="H381" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15622,10 +15577,10 @@
         <v>1340</v>
       </c>
       <c r="G382" t="s">
-        <v>1694</v>
+        <v>1683</v>
       </c>
       <c r="H382" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15645,13 +15600,13 @@
         <v>1325</v>
       </c>
       <c r="F383" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="G383" t="s">
-        <v>1695</v>
+        <v>1684</v>
       </c>
       <c r="H383" t="s">
-        <v>1753</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15671,13 +15626,13 @@
         <v>1284</v>
       </c>
       <c r="F384" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G384" t="s">
-        <v>1696</v>
+        <v>1685</v>
       </c>
       <c r="H384" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15700,10 +15655,10 @@
         <v>1293</v>
       </c>
       <c r="G385" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="H385" t="s">
-        <v>1745</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15723,13 +15678,13 @@
         <v>1326</v>
       </c>
       <c r="F386" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="G386" t="s">
-        <v>1697</v>
+        <v>1686</v>
       </c>
       <c r="H386" t="s">
-        <v>1770</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15749,13 +15704,13 @@
         <v>1327</v>
       </c>
       <c r="F387" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G387" t="s">
-        <v>1698</v>
+        <v>1687</v>
       </c>
       <c r="H387" t="s">
-        <v>1761</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15775,13 +15730,13 @@
         <v>1328</v>
       </c>
       <c r="F388" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="G388" t="s">
-        <v>1699</v>
+        <v>1688</v>
       </c>
       <c r="H388" t="s">
-        <v>1745</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15804,10 +15759,10 @@
         <v>1352</v>
       </c>
       <c r="G389" t="s">
-        <v>1664</v>
+        <v>1653</v>
       </c>
       <c r="H389" t="s">
-        <v>1760</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15827,13 +15782,13 @@
         <v>1324</v>
       </c>
       <c r="F390" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="G390" t="s">
-        <v>1700</v>
+        <v>1689</v>
       </c>
       <c r="H390" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15859,7 +15814,7 @@
         <v>1000</v>
       </c>
       <c r="H391" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15879,13 +15834,13 @@
         <v>1282</v>
       </c>
       <c r="F392" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G392" t="s">
-        <v>1583</v>
+        <v>1576</v>
       </c>
       <c r="H392" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15905,13 +15860,13 @@
         <v>1284</v>
       </c>
       <c r="F393" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G393" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="H393" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15934,10 +15889,10 @@
         <v>1277</v>
       </c>
       <c r="G394" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="H394" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15957,13 +15912,13 @@
         <v>1284</v>
       </c>
       <c r="F395" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G395" t="s">
-        <v>1701</v>
+        <v>1690</v>
       </c>
       <c r="H395" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -15986,10 +15941,10 @@
         <v>1284</v>
       </c>
       <c r="G396" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="H396" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16009,13 +15964,13 @@
         <v>1278</v>
       </c>
       <c r="F397" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="G397" t="s">
-        <v>1702</v>
+        <v>1691</v>
       </c>
       <c r="H397" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16035,13 +15990,13 @@
         <v>1284</v>
       </c>
       <c r="F398" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="G398" t="s">
-        <v>1703</v>
+        <v>1692</v>
       </c>
       <c r="H398" t="s">
-        <v>1755</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16061,13 +16016,13 @@
         <v>1284</v>
       </c>
       <c r="F399" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="G399" t="s">
-        <v>1704</v>
+        <v>1693</v>
       </c>
       <c r="H399" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16087,13 +16042,13 @@
         <v>1284</v>
       </c>
       <c r="F400" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G400" t="s">
-        <v>1705</v>
+        <v>1694</v>
       </c>
       <c r="H400" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16113,13 +16068,13 @@
         <v>1278</v>
       </c>
       <c r="F401" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="G401" t="s">
-        <v>1706</v>
+        <v>1695</v>
       </c>
       <c r="H401" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16139,13 +16094,13 @@
         <v>1293</v>
       </c>
       <c r="F402" t="s">
-        <v>1374</v>
+        <v>1284</v>
       </c>
       <c r="G402" t="s">
-        <v>1707</v>
+        <v>1093</v>
       </c>
       <c r="H402" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16168,10 +16123,10 @@
         <v>1349</v>
       </c>
       <c r="G403" t="s">
-        <v>1708</v>
+        <v>1696</v>
       </c>
       <c r="H403" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16191,13 +16146,13 @@
         <v>1303</v>
       </c>
       <c r="F404" t="s">
-        <v>1408</v>
+        <v>1385</v>
       </c>
       <c r="G404" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="H404" t="s">
-        <v>1771</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16223,7 +16178,7 @@
         <v>1228</v>
       </c>
       <c r="H405" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16249,7 +16204,7 @@
         <v>1228</v>
       </c>
       <c r="H406" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16269,13 +16224,13 @@
         <v>1284</v>
       </c>
       <c r="F407" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G407" t="s">
-        <v>1709</v>
+        <v>1697</v>
       </c>
       <c r="H407" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16298,10 +16253,10 @@
         <v>1338</v>
       </c>
       <c r="G408" t="s">
-        <v>1710</v>
+        <v>1698</v>
       </c>
       <c r="H408" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16321,13 +16276,13 @@
         <v>1324</v>
       </c>
       <c r="F409" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="G409" t="s">
-        <v>1711</v>
+        <v>1699</v>
       </c>
       <c r="H409" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16353,7 +16308,7 @@
         <v>1093</v>
       </c>
       <c r="H410" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16373,13 +16328,13 @@
         <v>1293</v>
       </c>
       <c r="F411" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="G411" t="s">
-        <v>1712</v>
+        <v>1700</v>
       </c>
       <c r="H411" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16402,10 +16357,10 @@
         <v>1284</v>
       </c>
       <c r="G412" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="H412" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16431,7 +16386,7 @@
         <v>972</v>
       </c>
       <c r="H413" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16457,7 +16412,7 @@
         <v>1235</v>
       </c>
       <c r="H414" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16477,13 +16432,13 @@
         <v>1323</v>
       </c>
       <c r="F415" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="G415" t="s">
-        <v>1713</v>
+        <v>1701</v>
       </c>
       <c r="H415" t="s">
-        <v>1758</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16506,10 +16461,10 @@
         <v>1275</v>
       </c>
       <c r="G416" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="H416" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16532,10 +16487,10 @@
         <v>1352</v>
       </c>
       <c r="G417" t="s">
-        <v>1664</v>
+        <v>1653</v>
       </c>
       <c r="H417" t="s">
-        <v>1757</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16555,13 +16510,13 @@
         <v>1284</v>
       </c>
       <c r="F418" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="G418" t="s">
-        <v>1714</v>
+        <v>1702</v>
       </c>
       <c r="H418" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16581,13 +16536,13 @@
         <v>1329</v>
       </c>
       <c r="F419" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="G419" t="s">
-        <v>1715</v>
+        <v>1703</v>
       </c>
       <c r="H419" t="s">
-        <v>1772</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16610,10 +16565,10 @@
         <v>1284</v>
       </c>
       <c r="G420" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="H420" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16636,10 +16591,10 @@
         <v>1284</v>
       </c>
       <c r="G421" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="H421" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16659,13 +16614,13 @@
         <v>1330</v>
       </c>
       <c r="F422" t="s">
-        <v>1439</v>
+        <v>1415</v>
       </c>
       <c r="G422" t="s">
-        <v>1716</v>
+        <v>1704</v>
       </c>
       <c r="H422" t="s">
-        <v>1759</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16688,10 +16643,10 @@
         <v>1352</v>
       </c>
       <c r="G423" t="s">
-        <v>1664</v>
+        <v>1653</v>
       </c>
       <c r="H423" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16711,13 +16666,13 @@
         <v>1284</v>
       </c>
       <c r="F424" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="G424" t="s">
-        <v>1717</v>
+        <v>1705</v>
       </c>
       <c r="H424" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16737,13 +16692,13 @@
         <v>1293</v>
       </c>
       <c r="F425" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="G425" t="s">
-        <v>1718</v>
+        <v>1706</v>
       </c>
       <c r="H425" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16766,10 +16721,10 @@
         <v>1352</v>
       </c>
       <c r="G426" t="s">
-        <v>1664</v>
+        <v>1653</v>
       </c>
       <c r="H426" t="s">
-        <v>1746</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16795,7 +16750,7 @@
         <v>1069</v>
       </c>
       <c r="H427" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16821,7 +16776,7 @@
         <v>1246</v>
       </c>
       <c r="H428" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16841,13 +16796,13 @@
         <v>1297</v>
       </c>
       <c r="F429" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="G429" t="s">
-        <v>1719</v>
+        <v>1707</v>
       </c>
       <c r="H429" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16870,10 +16825,10 @@
         <v>1342</v>
       </c>
       <c r="G430" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="H430" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16899,7 +16854,7 @@
         <v>1119</v>
       </c>
       <c r="H431" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16922,10 +16877,10 @@
         <v>1293</v>
       </c>
       <c r="G432" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="H432" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16944,14 +16899,8 @@
       <c r="E433" t="s">
         <v>1284</v>
       </c>
-      <c r="F433" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G433" t="s">
-        <v>1720</v>
-      </c>
       <c r="H433" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16971,13 +16920,13 @@
         <v>1293</v>
       </c>
       <c r="F434" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
       <c r="G434" t="s">
-        <v>1721</v>
+        <v>1708</v>
       </c>
       <c r="H434" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -16997,13 +16946,13 @@
         <v>1296</v>
       </c>
       <c r="F435" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G435" t="s">
-        <v>1722</v>
+        <v>1709</v>
       </c>
       <c r="H435" t="s">
-        <v>1773</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17029,7 +16978,7 @@
         <v>1093</v>
       </c>
       <c r="H436" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17049,13 +16998,13 @@
         <v>1293</v>
       </c>
       <c r="F437" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="G437" t="s">
-        <v>1723</v>
+        <v>1710</v>
       </c>
       <c r="H437" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17078,10 +17027,10 @@
         <v>1338</v>
       </c>
       <c r="G438" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="H438" t="s">
-        <v>1769</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17101,13 +17050,13 @@
         <v>1284</v>
       </c>
       <c r="F439" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="G439" t="s">
-        <v>1725</v>
+        <v>1712</v>
       </c>
       <c r="H439" t="s">
-        <v>1760</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17133,7 +17082,7 @@
         <v>952</v>
       </c>
       <c r="H440" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17152,14 +17101,8 @@
       <c r="E441" t="s">
         <v>1293</v>
       </c>
-      <c r="F441" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G441" t="s">
-        <v>1720</v>
-      </c>
       <c r="H441" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17185,7 +17128,7 @@
         <v>1093</v>
       </c>
       <c r="H442" t="s">
-        <v>1742</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17208,10 +17151,10 @@
         <v>1277</v>
       </c>
       <c r="G443" t="s">
-        <v>1726</v>
+        <v>1713</v>
       </c>
       <c r="H443" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17234,10 +17177,10 @@
         <v>1338</v>
       </c>
       <c r="G444" t="s">
-        <v>1727</v>
+        <v>1714</v>
       </c>
       <c r="H444" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17257,13 +17200,13 @@
         <v>1278</v>
       </c>
       <c r="F445" t="s">
-        <v>1442</v>
+        <v>1358</v>
       </c>
       <c r="G445" t="s">
-        <v>1728</v>
+        <v>1715</v>
       </c>
       <c r="H445" t="s">
-        <v>1745</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17286,10 +17229,10 @@
         <v>1349</v>
       </c>
       <c r="G446" t="s">
-        <v>1729</v>
+        <v>1716</v>
       </c>
       <c r="H446" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17315,7 +17258,7 @@
         <v>972</v>
       </c>
       <c r="H447" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17338,10 +17281,10 @@
         <v>1349</v>
       </c>
       <c r="G448" t="s">
-        <v>1730</v>
+        <v>1717</v>
       </c>
       <c r="H448" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17361,13 +17304,13 @@
         <v>1331</v>
       </c>
       <c r="F449" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
       <c r="G449" t="s">
-        <v>1731</v>
+        <v>1718</v>
       </c>
       <c r="H449" t="s">
-        <v>1774</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17390,10 +17333,10 @@
         <v>1340</v>
       </c>
       <c r="G450" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="H450" t="s">
-        <v>1748</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17416,10 +17359,10 @@
         <v>1293</v>
       </c>
       <c r="G451" t="s">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="H451" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17439,13 +17382,13 @@
         <v>1284</v>
       </c>
       <c r="F452" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
       <c r="G452" t="s">
-        <v>1732</v>
+        <v>1719</v>
       </c>
       <c r="H452" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17465,13 +17408,13 @@
         <v>1293</v>
       </c>
       <c r="F453" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
       <c r="G453" t="s">
-        <v>1733</v>
+        <v>1720</v>
       </c>
       <c r="H453" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17497,7 +17440,7 @@
         <v>1004</v>
       </c>
       <c r="H454" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17517,13 +17460,13 @@
         <v>1293</v>
       </c>
       <c r="F455" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
       <c r="G455" t="s">
-        <v>1734</v>
+        <v>1721</v>
       </c>
       <c r="H455" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17543,13 +17486,13 @@
         <v>1332</v>
       </c>
       <c r="F456" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="G456" t="s">
-        <v>1735</v>
+        <v>1722</v>
       </c>
       <c r="H456" t="s">
-        <v>1761</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17569,13 +17512,13 @@
         <v>1333</v>
       </c>
       <c r="F457" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="G457" t="s">
-        <v>1736</v>
+        <v>1723</v>
       </c>
       <c r="H457" t="s">
-        <v>1766</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17595,13 +17538,13 @@
         <v>1278</v>
       </c>
       <c r="F458" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
       <c r="G458" t="s">
-        <v>1737</v>
+        <v>1724</v>
       </c>
       <c r="H458" t="s">
-        <v>1764</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17627,7 +17570,7 @@
         <v>972</v>
       </c>
       <c r="H459" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17653,7 +17596,7 @@
         <v>1119</v>
       </c>
       <c r="H460" t="s">
-        <v>1775</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17676,10 +17619,10 @@
         <v>1350</v>
       </c>
       <c r="G461" t="s">
-        <v>1738</v>
+        <v>1725</v>
       </c>
       <c r="H461" t="s">
-        <v>1740</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17705,7 +17648,7 @@
         <v>952</v>
       </c>
       <c r="H462" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17725,13 +17668,13 @@
         <v>1321</v>
       </c>
       <c r="F463" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G463" t="s">
-        <v>1739</v>
+        <v>1726</v>
       </c>
       <c r="H463" t="s">
-        <v>1756</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -17757,7 +17700,7 @@
         <v>972</v>
       </c>
       <c r="H464" t="s">
-        <v>1741</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -17780,10 +17723,10 @@
         <v>1277</v>
       </c>
       <c r="G465" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="H465" t="s">
-        <v>1745</v>
+        <v>1732</v>
       </c>
     </row>
   </sheetData>
